--- a/data/Seances/20200123.xlsx
+++ b/data/Seances/20200123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
   <si>
     <t>Group</t>
   </si>
@@ -61,16 +61,16 @@
     <t>DPZV24e40</t>
   </si>
   <si>
+    <t>Tzfc0e70</t>
+  </si>
+  <si>
     <t>Tzfc70e110</t>
   </si>
   <si>
-    <t>Tzfc0e70</t>
+    <t>Tzfc110e150</t>
   </si>
   <si>
     <t>Tzfc150e180</t>
-  </si>
-  <si>
-    <t>Tzfc110e150</t>
   </si>
   <si>
     <t>Tzfc180e250</t>
@@ -141,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,11 +169,42 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,7 +215,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -192,25 +222,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,24 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,20 +290,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -283,23 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -314,37 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,6 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,7 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,19 +392,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,49 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,25 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,17 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +520,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +552,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,30 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -606,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,65 +618,65 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -684,9 +684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,15 +1007,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,8 +1097,11 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="2:27">
+      <c r="AC1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1148,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="4">
+        <v>0.0040162037037037</v>
+      </c>
+      <c r="S2" s="4">
         <v>0.00291666666666667</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0.0040162037037037</v>
       </c>
       <c r="T2" s="4">
         <v>0</v>
@@ -1174,8 +1177,11 @@
       <c r="AA2" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="3" spans="2:27">
+      <c r="AC2" s="4">
+        <v>0.00291666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -1251,8 +1257,11 @@
       <c r="AA3" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="4" spans="2:27">
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1296,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>0.000104166666666667</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
       <c r="R4" s="4">
+        <v>0.0025</v>
+      </c>
+      <c r="S4" s="4">
         <v>0.00184027777777778</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0.0025</v>
       </c>
       <c r="T4" s="4">
         <v>0.000787037037037037</v>
@@ -1328,8 +1337,11 @@
       <c r="AA4" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="5" spans="2:27">
+      <c r="AC4" s="4">
+        <v>0.00184027777777778</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1373,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0.000173611111111111</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
       <c r="R5" s="4">
+        <v>0.00527777777777778</v>
+      </c>
+      <c r="S5" s="4">
         <v>0.00148148148148148</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0.00527777777777778</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -1405,8 +1417,11 @@
       <c r="AA5" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="6" spans="2:27">
+      <c r="AC5" s="4">
+        <v>0.00148148148148148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1456,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="4">
+        <v>5.78703703703704e-5</v>
+      </c>
+      <c r="S6" s="4">
         <v>2.31481481481481e-5</v>
-      </c>
-      <c r="S6" s="4">
-        <v>5.78703703703704e-5</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -1482,8 +1497,11 @@
       <c r="AA6" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="7" spans="2:27">
+      <c r="AC6" s="4">
+        <v>2.31481481481481e-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -1527,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>0.000555555555555556</v>
       </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
       <c r="R7" s="4">
+        <v>0.00328703703703704</v>
+      </c>
+      <c r="S7" s="4">
         <v>0.00200231481481481</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0.00328703703703704</v>
       </c>
       <c r="T7" s="4">
         <v>0.000208333333333333</v>
@@ -1559,8 +1577,11 @@
       <c r="AA7" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="8" spans="2:27">
+      <c r="AC7" s="4">
+        <v>0.00200231481481481</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1604,16 +1625,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>0.000185185185185185</v>
       </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
       <c r="R8" s="4">
+        <v>0.00407407407407407</v>
+      </c>
+      <c r="S8" s="4">
         <v>0.00265046296296296</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0.00407407407407407</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -1636,8 +1657,11 @@
       <c r="AA8" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="9" spans="2:27">
+      <c r="AC8" s="4">
+        <v>0.00265046296296296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1687,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="4">
+        <v>0.00658564814814815</v>
+      </c>
+      <c r="S9" s="4">
         <v>0.000381944444444444</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0.00658564814814815</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -1713,8 +1737,11 @@
       <c r="AA9" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="10" spans="2:27">
+      <c r="AC9" s="4">
+        <v>0.000381944444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1764,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="4">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="S10" s="4">
         <v>0.00376157407407407</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0.000694444444444444</v>
       </c>
       <c r="T10" s="4">
         <v>0.00246527777777778</v>
@@ -1790,8 +1817,11 @@
       <c r="AA10" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="11" spans="2:27">
+      <c r="AC10" s="4">
+        <v>0.00376157407407407</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1841,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="4">
+        <v>0.00126157407407407</v>
+      </c>
+      <c r="S11" s="4">
         <v>0.00284722222222222</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0.00126157407407407</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -1867,8 +1897,11 @@
       <c r="AA11" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="12" spans="2:27">
+      <c r="AC11" s="4">
+        <v>0.00284722222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +1977,11 @@
       <c r="AA12" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="13" spans="2:27">
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1989,16 +2025,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <v>5.78703703703704e-5</v>
       </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
       <c r="R13" s="4">
+        <v>0.00237268518518519</v>
+      </c>
+      <c r="S13" s="4">
         <v>0.00452546296296296</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0.00237268518518519</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -2021,8 +2057,11 @@
       <c r="AA13" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="14" spans="2:27">
+      <c r="AC13" s="4">
+        <v>0.00452546296296296</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -2066,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0.000300925925925926</v>
       </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
       <c r="R14" s="4">
+        <v>0.00431712962962963</v>
+      </c>
+      <c r="S14" s="4">
         <v>0.00175925925925926</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0.00431712962962963</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -2098,8 +2137,11 @@
       <c r="AA14" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="15" spans="2:27">
+      <c r="AC14" s="4">
+        <v>0.00175925925925926</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -2143,16 +2185,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>3.47222222222222e-5</v>
       </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
       <c r="R15" s="4">
-        <v>0</v>
+        <v>0.000543981481481481</v>
       </c>
       <c r="S15" s="4">
-        <v>0.000543981481481481</v>
+        <v>0</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
@@ -2175,8 +2217,11 @@
       <c r="AA15" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="16" spans="2:27">
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -2252,8 +2297,11 @@
       <c r="AA16" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="17" spans="2:27">
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -2303,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <v>0.000486111111111111</v>
+      </c>
+      <c r="S17" s="4">
         <v>9.25925925925926e-5</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0.000486111111111111</v>
       </c>
       <c r="T17" s="4">
         <v>0</v>
@@ -2329,8 +2377,11 @@
       <c r="AA17" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="18" spans="2:27">
+      <c r="AC17" s="4">
+        <v>9.25925925925926e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -2380,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <v>0</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="S18" s="4">
-        <v>0.000578703703703704</v>
+        <v>0</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -2406,8 +2457,11 @@
       <c r="AA18" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="19" spans="2:27">
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -2451,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
         <v>1.15740740740741e-5</v>
       </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
       <c r="R19" s="4">
-        <v>0</v>
+        <v>0.000520833333333333</v>
       </c>
       <c r="S19" s="4">
-        <v>0.000520833333333333</v>
+        <v>0</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -2483,8 +2537,11 @@
       <c r="AA19" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -2534,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <v>0</v>
+        <v>0.00056712962962963</v>
       </c>
       <c r="S20" s="4">
-        <v>0.00056712962962963</v>
+        <v>0</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
@@ -2560,8 +2617,11 @@
       <c r="AA20" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="21" spans="2:27">
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -2611,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
+        <v>0.000543981481481481</v>
+      </c>
+      <c r="S21" s="4">
         <v>2.31481481481481e-5</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0.000543981481481481</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
@@ -2637,8 +2697,11 @@
       <c r="AA21" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="22" spans="2:27">
+      <c r="AC21" s="4">
+        <v>2.31481481481481e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -2688,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="S22" s="4">
-        <v>0.000578703703703704</v>
+        <v>0</v>
       </c>
       <c r="T22" s="4">
         <v>0</v>
@@ -2714,8 +2777,11 @@
       <c r="AA22" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="23" spans="2:27">
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -2765,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="4">
-        <v>0</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="S23" s="4">
-        <v>0.000578703703703704</v>
+        <v>0</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
@@ -2791,8 +2857,11 @@
       <c r="AA23" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="24" spans="2:27">
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -2842,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="4">
-        <v>0</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="S24" s="4">
-        <v>0.000578703703703704</v>
+        <v>0</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -2868,8 +2937,11 @@
       <c r="AA24" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="25" spans="2:27">
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
       <c r="B25" t="s">
         <v>37</v>
       </c>
@@ -2945,8 +3017,11 @@
       <c r="AA25" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="26" spans="2:27">
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -2996,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="4">
-        <v>0</v>
+        <v>0.000590277777777778</v>
       </c>
       <c r="S26" s="4">
-        <v>0.000590277777777778</v>
+        <v>0</v>
       </c>
       <c r="T26" s="4">
         <v>0</v>
@@ -3022,8 +3097,11 @@
       <c r="AA26" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="27" spans="2:27">
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -3067,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <v>0.000578703703703704</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
       </c>
       <c r="R27" s="4">
         <v>0</v>
@@ -3099,8 +3177,11 @@
       <c r="AA27" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -3144,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <v>2.31481481481481e-5</v>
       </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
       <c r="R28" s="4">
+        <v>0.00686342592592593</v>
+      </c>
+      <c r="S28" s="4">
         <v>0.00486111111111111</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0.00686342592592593</v>
       </c>
       <c r="T28" s="4">
         <v>0.00146990740740741</v>
@@ -3176,8 +3257,11 @@
       <c r="AA28" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="29" spans="2:27">
+      <c r="AC28" s="4">
+        <v>0.00486111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -3221,16 +3305,16 @@
         <v>3</v>
       </c>
       <c r="P29" s="4">
+        <v>2.31481481481481e-5</v>
+      </c>
+      <c r="Q29" s="4">
         <v>0.000150462962962963</v>
       </c>
-      <c r="Q29" s="4">
-        <v>2.31481481481481e-5</v>
-      </c>
       <c r="R29" s="4">
+        <v>0.00440972222222222</v>
+      </c>
+      <c r="S29" s="4">
         <v>0.00569444444444444</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0.00440972222222222</v>
       </c>
       <c r="T29" s="4">
         <v>0.0021412037037037</v>
@@ -3253,8 +3337,11 @@
       <c r="AA29" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="30" spans="2:27">
+      <c r="AC29" s="4">
+        <v>0.00569444444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -3298,16 +3385,16 @@
         <v>28</v>
       </c>
       <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
         <v>2.31481481481481e-5</v>
       </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
       <c r="R30" s="4">
+        <v>0.00633101851851852</v>
+      </c>
+      <c r="S30" s="4">
         <v>0.00606481481481481</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0.00633101851851852</v>
       </c>
       <c r="T30" s="4">
         <v>0.000266203703703704</v>
@@ -3330,8 +3417,11 @@
       <c r="AA30" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="31" spans="2:27">
+      <c r="AC30" s="4">
+        <v>0.00606481481481481</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3381,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="4">
+        <v>0.00553240740740741</v>
+      </c>
+      <c r="S31" s="4">
         <v>0.00726851851851852</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0.00553240740740741</v>
       </c>
       <c r="T31" s="4">
         <v>0.000347222222222222</v>
@@ -3407,8 +3497,11 @@
       <c r="AA31" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="32" spans="2:27">
+      <c r="AC31" s="4">
+        <v>0.00726851851851852</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -3452,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
         <v>0.00115740740740741</v>
       </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
       <c r="R32" s="4">
-        <v>0</v>
+        <v>0.00025462962962963</v>
       </c>
       <c r="S32" s="4">
-        <v>0.00025462962962963</v>
+        <v>0</v>
       </c>
       <c r="T32" s="4">
         <v>0</v>
@@ -3484,8 +3577,11 @@
       <c r="AA32" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="33" spans="2:27">
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -3529,16 +3625,16 @@
         <v>0</v>
       </c>
       <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <v>9.25925925925926e-5</v>
       </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
       <c r="R33" s="4">
+        <v>0.00730324074074074</v>
+      </c>
+      <c r="S33" s="4">
         <v>0.00577546296296296</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0.00730324074074074</v>
       </c>
       <c r="T33" s="4">
         <v>0</v>
@@ -3561,8 +3657,11 @@
       <c r="AA33" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="34" spans="2:27">
+      <c r="AC33" s="4">
+        <v>0.00577546296296296</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
       <c r="B34" t="s">
         <v>33</v>
       </c>
@@ -3612,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="R34" s="4">
+        <v>0.00789351851851852</v>
+      </c>
+      <c r="S34" s="4">
         <v>0.0053125</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0.00789351851851852</v>
       </c>
       <c r="T34" s="4">
         <v>0</v>
@@ -3638,8 +3737,11 @@
       <c r="AA34" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="35" spans="2:27">
+      <c r="AC34" s="4">
+        <v>0.0053125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
       <c r="B35" t="s">
         <v>34</v>
       </c>
@@ -3683,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <v>0.000648148148148148</v>
       </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
       <c r="R35" s="4">
-        <v>0</v>
+        <v>0.0125115740740741</v>
       </c>
       <c r="S35" s="4">
-        <v>0.0125115740740741</v>
+        <v>0</v>
       </c>
       <c r="T35" s="4">
         <v>0</v>
@@ -3715,8 +3817,11 @@
       <c r="AA35" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="36" spans="2:27">
+      <c r="AC35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
       <c r="B36" t="s">
         <v>35</v>
       </c>
@@ -3766,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="4">
+        <v>0.00446759259259259</v>
+      </c>
+      <c r="S36" s="4">
         <v>0.00724537037037037</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0.00446759259259259</v>
       </c>
       <c r="T36" s="4">
         <v>0.00148148148148148</v>
@@ -3792,8 +3897,11 @@
       <c r="AA36" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="37" spans="2:27">
+      <c r="AC36" s="4">
+        <v>0.00724537037037037</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37" t="s">
         <v>36</v>
       </c>
@@ -3843,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="R37" s="4">
+        <v>0.00782407407407408</v>
+      </c>
+      <c r="S37" s="4">
         <v>0.0053587962962963</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0.00782407407407408</v>
       </c>
       <c r="T37" s="4">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AA37" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="38" spans="2:27">
+      <c r="AC37" s="4">
+        <v>0.0053587962962963</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
       <c r="B38" t="s">
         <v>37</v>
       </c>
@@ -3914,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <v>0.00175925925925926</v>
       </c>
-      <c r="Q38" s="4">
-        <v>0</v>
-      </c>
       <c r="R38" s="4">
+        <v>0.00396990740740741</v>
+      </c>
+      <c r="S38" s="4">
         <v>0.00211805555555556</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0.00396990740740741</v>
       </c>
       <c r="T38" s="4">
         <v>0.00121527777777778</v>
@@ -3946,8 +4057,11 @@
       <c r="AA38" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="39" spans="2:27">
+      <c r="AC38" s="4">
+        <v>0.00211805555555556</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
       <c r="B39" t="s">
         <v>38</v>
       </c>
@@ -3997,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="4">
+        <v>0.00700231481481482</v>
+      </c>
+      <c r="S39" s="4">
         <v>0.0059837962962963</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0.00700231481481482</v>
       </c>
       <c r="T39" s="4">
         <v>0.000208333333333333</v>
@@ -4023,8 +4137,11 @@
       <c r="AA39" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="40" spans="2:27">
+      <c r="AC39" s="4">
+        <v>0.0059837962962963</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40" t="s">
         <v>39</v>
       </c>
@@ -4068,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
         <v>0.00465277777777778</v>
       </c>
-      <c r="Q40" s="4">
-        <v>0</v>
-      </c>
       <c r="R40" s="4">
+        <v>0.00695601851851852</v>
+      </c>
+      <c r="S40" s="4">
         <v>0.0015625</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0.00695601851851852</v>
       </c>
       <c r="T40" s="4">
         <v>0</v>
@@ -4100,8 +4217,11 @@
       <c r="AA40" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="41" spans="2:27">
+      <c r="AC40" s="4">
+        <v>0.0015625</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -4151,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="R41" s="4">
+        <v>0.00194444444444444</v>
+      </c>
+      <c r="S41" s="4">
         <v>0.000462962962962963</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0.00194444444444444</v>
       </c>
       <c r="T41" s="4">
         <v>8.10185185185185e-5</v>
@@ -4177,8 +4297,11 @@
       <c r="AA41" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="42" spans="2:27">
+      <c r="AC41" s="4">
+        <v>0.000462962962962963</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -4228,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="R42" s="4">
+        <v>0.0021875</v>
+      </c>
+      <c r="S42" s="4">
         <v>0.000300925925925926</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0.0021875</v>
       </c>
       <c r="T42" s="4">
         <v>0</v>
@@ -4254,8 +4377,11 @@
       <c r="AA42" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="43" spans="2:27">
+      <c r="AC42" s="4">
+        <v>0.000300925925925926</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -4305,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="4">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="S43" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="T43" s="4">
         <v>0</v>
@@ -4331,8 +4457,11 @@
       <c r="AA43" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="44" spans="2:27">
+      <c r="AC43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -4382,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="R44" s="4">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="S44" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="T44" s="4">
         <v>0</v>
@@ -4408,8 +4537,11 @@
       <c r="AA44" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="45" spans="2:27">
+      <c r="AC44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
       <c r="B45" t="s">
         <v>31</v>
       </c>
@@ -4485,8 +4617,11 @@
       <c r="AA45" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="46" spans="2:27">
+      <c r="AC45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29">
       <c r="B46" t="s">
         <v>32</v>
       </c>
@@ -4530,16 +4665,16 @@
         <v>0</v>
       </c>
       <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
         <v>3.47222222222222e-5</v>
       </c>
-      <c r="Q46" s="4">
-        <v>0</v>
-      </c>
       <c r="R46" s="4">
+        <v>0.00238425925925926</v>
+      </c>
+      <c r="S46" s="4">
         <v>6.94444444444444e-5</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0.00238425925925926</v>
       </c>
       <c r="T46" s="4">
         <v>0</v>
@@ -4562,8 +4697,11 @@
       <c r="AA46" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="47" spans="2:27">
+      <c r="AC46" s="4">
+        <v>6.94444444444444e-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -4613,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="4">
+        <v>0.00230324074074074</v>
+      </c>
+      <c r="S47" s="4">
         <v>0.000196759259259259</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0.00230324074074074</v>
       </c>
       <c r="T47" s="4">
         <v>0</v>
@@ -4639,8 +4777,11 @@
       <c r="AA47" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="48" spans="2:27">
+      <c r="AC47" s="4">
+        <v>0.000196759259259259</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
       <c r="B48" t="s">
         <v>34</v>
       </c>
@@ -4684,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
         <v>0.000185185185185185</v>
       </c>
-      <c r="Q48" s="4">
-        <v>0</v>
-      </c>
       <c r="R48" s="4">
-        <v>0</v>
+        <v>0.00232638888888889</v>
       </c>
       <c r="S48" s="4">
-        <v>0.00232638888888889</v>
+        <v>0</v>
       </c>
       <c r="T48" s="4">
         <v>0</v>
@@ -4716,8 +4857,11 @@
       <c r="AA48" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="49" spans="2:27">
+      <c r="AC48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29">
       <c r="B49" t="s">
         <v>35</v>
       </c>
@@ -4767,10 +4911,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="4">
+        <v>0.001875</v>
+      </c>
+      <c r="S49" s="4">
         <v>0.00056712962962963</v>
-      </c>
-      <c r="S49" s="4">
-        <v>0.001875</v>
       </c>
       <c r="T49" s="4">
         <v>3.47222222222222e-5</v>
@@ -4793,8 +4937,11 @@
       <c r="AA49" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="50" spans="2:27">
+      <c r="AC49" s="4">
+        <v>0.00056712962962963</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29">
       <c r="B50" t="s">
         <v>36</v>
       </c>
@@ -4838,16 +4985,16 @@
         <v>0</v>
       </c>
       <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
         <v>0.000231481481481481</v>
       </c>
-      <c r="Q50" s="4">
-        <v>0</v>
-      </c>
       <c r="R50" s="4">
-        <v>0</v>
+        <v>0.00225694444444444</v>
       </c>
       <c r="S50" s="4">
-        <v>0.00225694444444444</v>
+        <v>0</v>
       </c>
       <c r="T50" s="4">
         <v>0</v>
@@ -4870,8 +5017,11 @@
       <c r="AA50" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="51" spans="2:27">
+      <c r="AC50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29">
       <c r="B51" t="s">
         <v>37</v>
       </c>
@@ -4915,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <v>0.0025</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>0</v>
       </c>
       <c r="R51" s="4">
         <v>0</v>
@@ -4947,8 +5097,11 @@
       <c r="AA51" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="52" spans="2:27">
+      <c r="AC51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -4998,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="4">
+        <v>0.00211805555555556</v>
+      </c>
+      <c r="S52" s="4">
         <v>0.00037037037037037</v>
-      </c>
-      <c r="S52" s="4">
-        <v>0.00211805555555556</v>
       </c>
       <c r="T52" s="4">
         <v>0</v>
@@ -5024,8 +5177,11 @@
       <c r="AA52" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="53" spans="2:27">
+      <c r="AC52" s="4">
+        <v>0.00037037037037037</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29">
       <c r="B53" t="s">
         <v>39</v>
       </c>
@@ -5069,16 +5225,16 @@
         <v>0</v>
       </c>
       <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
         <v>0.00225694444444444</v>
       </c>
-      <c r="Q53" s="4">
-        <v>0</v>
-      </c>
       <c r="R53" s="4">
-        <v>0</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="S53" s="4">
-        <v>0.000231481481481481</v>
+        <v>0</v>
       </c>
       <c r="T53" s="4">
         <v>0</v>
@@ -5101,8 +5257,11 @@
       <c r="AA53" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="54" spans="2:27">
+      <c r="AC53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29">
       <c r="B54" t="s">
         <v>27</v>
       </c>
@@ -5152,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="4">
+        <v>0.00328703703703704</v>
+      </c>
+      <c r="S54" s="4">
         <v>0.00408564814814815</v>
-      </c>
-      <c r="S54" s="4">
-        <v>0.00328703703703704</v>
       </c>
       <c r="T54" s="4">
         <v>0.0022337962962963</v>
@@ -5178,8 +5337,11 @@
       <c r="AA54" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="55" spans="2:27">
+      <c r="AC54" s="4">
+        <v>0.00408564814814815</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -5229,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="R55" s="4">
+        <v>0.00106481481481481</v>
+      </c>
+      <c r="S55" s="4">
         <v>0.00403935185185185</v>
-      </c>
-      <c r="S55" s="4">
-        <v>0.00106481481481481</v>
       </c>
       <c r="T55" s="4">
         <v>0.0044212962962963</v>
@@ -5255,8 +5417,11 @@
       <c r="AA55" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="56" spans="2:27">
+      <c r="AC55" s="4">
+        <v>0.00403935185185185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29">
       <c r="B56" t="s">
         <v>29</v>
       </c>
@@ -5306,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="4">
+        <v>0.00415509259259259</v>
+      </c>
+      <c r="S56" s="4">
         <v>0.00542824074074074</v>
-      </c>
-      <c r="S56" s="4">
-        <v>0.00415509259259259</v>
       </c>
       <c r="T56" s="4">
         <v>0</v>
@@ -5332,8 +5497,11 @@
       <c r="AA56" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="57" spans="2:27">
+      <c r="AC56" s="4">
+        <v>0.00542824074074074</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29">
       <c r="B57" t="s">
         <v>30</v>
       </c>
@@ -5383,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="R57" s="4">
+        <v>0.00287037037037037</v>
+      </c>
+      <c r="S57" s="4">
         <v>0.00390046296296296</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0.00287037037037037</v>
       </c>
       <c r="T57" s="4">
         <v>0.00282407407407407</v>
@@ -5409,8 +5577,11 @@
       <c r="AA57" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="58" spans="2:27">
+      <c r="AC57" s="4">
+        <v>0.00390046296296296</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29">
       <c r="B58" t="s">
         <v>31</v>
       </c>
@@ -5454,16 +5625,16 @@
         <v>0</v>
       </c>
       <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
         <v>0.000127314814814815</v>
       </c>
-      <c r="Q58" s="4">
-        <v>0</v>
-      </c>
       <c r="R58" s="4">
+        <v>0.0028125</v>
+      </c>
+      <c r="S58" s="4">
         <v>0.0012962962962963</v>
-      </c>
-      <c r="S58" s="4">
-        <v>0.0028125</v>
       </c>
       <c r="T58" s="4">
         <v>0.000462962962962963</v>
@@ -5486,8 +5657,11 @@
       <c r="AA58" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="59" spans="2:27">
+      <c r="AC58" s="4">
+        <v>0.0012962962962963</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29">
       <c r="B59" t="s">
         <v>32</v>
       </c>
@@ -5537,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="R59" s="4">
+        <v>0.00402777777777778</v>
+      </c>
+      <c r="S59" s="4">
         <v>0.00415509259259259</v>
-      </c>
-      <c r="S59" s="4">
-        <v>0.00402777777777778</v>
       </c>
       <c r="T59" s="4">
         <v>0.00141203703703704</v>
@@ -5563,8 +5737,11 @@
       <c r="AA59" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="60" spans="2:27">
+      <c r="AC59" s="4">
+        <v>0.00415509259259259</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29">
       <c r="B60" t="s">
         <v>33</v>
       </c>
@@ -5614,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="4">
+        <v>0.00273148148148148</v>
+      </c>
+      <c r="S60" s="4">
         <v>0.00247685185185185</v>
-      </c>
-      <c r="S60" s="4">
-        <v>0.00273148148148148</v>
       </c>
       <c r="T60" s="4">
         <v>0.00434027777777778</v>
@@ -5640,8 +5817,11 @@
       <c r="AA60" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="61" spans="2:27">
+      <c r="AC60" s="4">
+        <v>0.00247685185185185</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29">
       <c r="B61" t="s">
         <v>34</v>
       </c>
@@ -5691,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="4">
+        <v>0.00655092592592593</v>
+      </c>
+      <c r="S61" s="4">
         <v>0.00302083333333333</v>
-      </c>
-      <c r="S61" s="4">
-        <v>0.00655092592592593</v>
       </c>
       <c r="T61" s="4">
         <v>0</v>
@@ -5717,8 +5897,11 @@
       <c r="AA61" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="62" spans="2:27">
+      <c r="AC61" s="4">
+        <v>0.00302083333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29">
       <c r="B62" t="s">
         <v>35</v>
       </c>
@@ -5768,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="4">
+        <v>0.00166666666666667</v>
+      </c>
+      <c r="S62" s="4">
         <v>0.00265046296296296</v>
-      </c>
-      <c r="S62" s="4">
-        <v>0.00166666666666667</v>
       </c>
       <c r="T62" s="4">
         <v>0.00524305555555556</v>
@@ -5794,8 +5977,11 @@
       <c r="AA62" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="63" spans="2:27">
+      <c r="AC62" s="4">
+        <v>0.00265046296296296</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29">
       <c r="B63" t="s">
         <v>36</v>
       </c>
@@ -5845,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="4">
+        <v>0.00328703703703704</v>
+      </c>
+      <c r="S63" s="4">
         <v>0.00402777777777778</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0.00328703703703704</v>
       </c>
       <c r="T63" s="4">
         <v>0.00222222222222222</v>
@@ -5871,8 +6057,11 @@
       <c r="AA63" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="64" spans="2:27">
+      <c r="AC63" s="4">
+        <v>0.00402777777777778</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29">
       <c r="B64" t="s">
         <v>37</v>
       </c>
@@ -5916,16 +6105,16 @@
         <v>4</v>
       </c>
       <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
         <v>0.000196759259259259</v>
       </c>
-      <c r="Q64" s="4">
-        <v>0</v>
-      </c>
       <c r="R64" s="4">
+        <v>0.0037962962962963</v>
+      </c>
+      <c r="S64" s="4">
         <v>0.00368055555555556</v>
-      </c>
-      <c r="S64" s="4">
-        <v>0.0037962962962963</v>
       </c>
       <c r="T64" s="4">
         <v>0.00181712962962963</v>
@@ -5948,8 +6137,11 @@
       <c r="AA64" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="65" spans="2:27">
+      <c r="AC64" s="4">
+        <v>0.00368055555555556</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29">
       <c r="B65" t="s">
         <v>38</v>
       </c>
@@ -5999,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="4">
+        <v>0.00233796296296296</v>
+      </c>
+      <c r="S65" s="4">
         <v>0.00265046296296296</v>
-      </c>
-      <c r="S65" s="4">
-        <v>0.00233796296296296</v>
       </c>
       <c r="T65" s="4">
         <v>0.00458333333333333</v>
@@ -6025,8 +6217,11 @@
       <c r="AA65" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="66" spans="2:27">
+      <c r="AC65" s="4">
+        <v>0.00265046296296296</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29">
       <c r="B66" t="s">
         <v>39</v>
       </c>
@@ -6070,16 +6265,16 @@
         <v>15</v>
       </c>
       <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
         <v>0.00143518518518519</v>
       </c>
-      <c r="Q66" s="4">
-        <v>0</v>
-      </c>
       <c r="R66" s="4">
+        <v>0.00284722222222222</v>
+      </c>
+      <c r="S66" s="4">
         <v>0.00496527777777778</v>
-      </c>
-      <c r="S66" s="4">
-        <v>0.00284722222222222</v>
       </c>
       <c r="T66" s="4">
         <v>0.000300925925925926</v>
@@ -6102,8 +6297,11 @@
       <c r="AA66" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="67" spans="2:27">
+      <c r="AC66" s="4">
+        <v>0.00496527777777778</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29">
       <c r="B67" t="s">
         <v>27</v>
       </c>
@@ -6153,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="4">
-        <v>0</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="S67" s="4">
-        <v>0.00173611111111111</v>
+        <v>0</v>
       </c>
       <c r="T67" s="4">
         <v>0</v>
@@ -6179,8 +6377,11 @@
       <c r="AA67" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="68" spans="2:27">
+      <c r="AC67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29">
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -6230,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="R68" s="4">
+        <v>0.00099537037037037</v>
+      </c>
+      <c r="S68" s="4">
         <v>0.000740740740740741</v>
-      </c>
-      <c r="S68" s="4">
-        <v>0.00099537037037037</v>
       </c>
       <c r="T68" s="4">
         <v>0</v>
@@ -6256,8 +6457,11 @@
       <c r="AA68" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="69" spans="2:27">
+      <c r="AC68" s="4">
+        <v>0.000740740740740741</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29">
       <c r="B69" t="s">
         <v>29</v>
       </c>
@@ -6307,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="4">
-        <v>0</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="S69" s="4">
-        <v>0.00173611111111111</v>
+        <v>0</v>
       </c>
       <c r="T69" s="4">
         <v>0</v>
@@ -6333,8 +6537,11 @@
       <c r="AA69" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="70" spans="2:27">
+      <c r="AC69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29">
       <c r="B70" t="s">
         <v>30</v>
       </c>
@@ -6378,16 +6585,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
         <v>3.47222222222222e-5</v>
       </c>
-      <c r="Q70" s="4">
-        <v>0</v>
-      </c>
       <c r="R70" s="4">
-        <v>0</v>
+        <v>0.00168981481481482</v>
       </c>
       <c r="S70" s="4">
-        <v>0.00168981481481482</v>
+        <v>0</v>
       </c>
       <c r="T70" s="4">
         <v>0</v>
@@ -6410,8 +6617,11 @@
       <c r="AA70" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="71" spans="2:27">
+      <c r="AC70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29">
       <c r="B71" t="s">
         <v>31</v>
       </c>
@@ -6455,16 +6665,16 @@
         <v>0</v>
       </c>
       <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
         <v>0.00113425925925926</v>
       </c>
-      <c r="Q71" s="4">
-        <v>0</v>
-      </c>
       <c r="R71" s="4">
-        <v>0</v>
+        <v>0.000590277777777778</v>
       </c>
       <c r="S71" s="4">
-        <v>0.000590277777777778</v>
+        <v>0</v>
       </c>
       <c r="T71" s="4">
         <v>0</v>
@@ -6487,8 +6697,11 @@
       <c r="AA71" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="72" spans="2:27">
+      <c r="AC71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29">
       <c r="B72" t="s">
         <v>32</v>
       </c>
@@ -6538,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="R72" s="4">
-        <v>0</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="S72" s="4">
-        <v>0.00173611111111111</v>
+        <v>0</v>
       </c>
       <c r="T72" s="4">
         <v>0</v>
@@ -6564,8 +6777,11 @@
       <c r="AA72" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="73" spans="2:27">
+      <c r="AC72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29">
       <c r="B73" t="s">
         <v>33</v>
       </c>
@@ -6615,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="R73" s="4">
+        <v>0.00163194444444444</v>
+      </c>
+      <c r="S73" s="4">
         <v>0.000104166666666667</v>
-      </c>
-      <c r="S73" s="4">
-        <v>0.00163194444444444</v>
       </c>
       <c r="T73" s="4">
         <v>0</v>
@@ -6641,8 +6857,11 @@
       <c r="AA73" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="74" spans="2:27">
+      <c r="AC73" s="4">
+        <v>0.000104166666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29">
       <c r="B74" t="s">
         <v>34</v>
       </c>
@@ -6686,16 +6905,16 @@
         <v>0</v>
       </c>
       <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
         <v>4.62962962962963e-5</v>
       </c>
-      <c r="Q74" s="4">
-        <v>0</v>
-      </c>
       <c r="R74" s="4">
-        <v>0</v>
+        <v>0.00167824074074074</v>
       </c>
       <c r="S74" s="4">
-        <v>0.00167824074074074</v>
+        <v>0</v>
       </c>
       <c r="T74" s="4">
         <v>0</v>
@@ -6718,8 +6937,11 @@
       <c r="AA74" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="75" spans="2:27">
+      <c r="AC74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29">
       <c r="B75" t="s">
         <v>35</v>
       </c>
@@ -6769,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="R75" s="4">
+        <v>0.000543981481481481</v>
+      </c>
+      <c r="S75" s="4">
         <v>0.00119212962962963</v>
-      </c>
-      <c r="S75" s="4">
-        <v>0.000543981481481481</v>
       </c>
       <c r="T75" s="4">
         <v>0</v>
@@ -6795,8 +7017,11 @@
       <c r="AA75" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="76" spans="2:27">
+      <c r="AC75" s="4">
+        <v>0.00119212962962963</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29">
       <c r="B76" t="s">
         <v>36</v>
       </c>
@@ -6846,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="R76" s="4">
-        <v>0</v>
+        <v>0.00175925925925926</v>
       </c>
       <c r="S76" s="4">
-        <v>0.00175925925925926</v>
+        <v>0</v>
       </c>
       <c r="T76" s="4">
         <v>0</v>
@@ -6872,8 +7097,11 @@
       <c r="AA76" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="77" spans="2:27">
+      <c r="AC76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29">
       <c r="B77" t="s">
         <v>37</v>
       </c>
@@ -6917,16 +7145,16 @@
         <v>0</v>
       </c>
       <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
         <v>0.000671296296296296</v>
       </c>
-      <c r="Q77" s="4">
-        <v>0</v>
-      </c>
       <c r="R77" s="4">
-        <v>0</v>
+        <v>0.00106481481481481</v>
       </c>
       <c r="S77" s="4">
-        <v>0.00106481481481481</v>
+        <v>0</v>
       </c>
       <c r="T77" s="4">
         <v>0</v>
@@ -6949,8 +7177,11 @@
       <c r="AA77" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="78" spans="2:27">
+      <c r="AC77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29">
       <c r="B78" t="s">
         <v>38</v>
       </c>
@@ -7000,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="4">
-        <v>0</v>
+        <v>0.00172453703703704</v>
       </c>
       <c r="S78" s="4">
-        <v>0.00172453703703704</v>
+        <v>0</v>
       </c>
       <c r="T78" s="4">
         <v>0</v>
@@ -7026,8 +7257,11 @@
       <c r="AA78" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="79" spans="2:27">
+      <c r="AC78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29">
       <c r="B79" t="s">
         <v>39</v>
       </c>
@@ -7071,16 +7305,16 @@
         <v>0</v>
       </c>
       <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
         <v>0.000289351851851852</v>
       </c>
-      <c r="Q79" s="4">
-        <v>0</v>
-      </c>
       <c r="R79" s="4">
-        <v>0</v>
+        <v>0.00144675925925926</v>
       </c>
       <c r="S79" s="4">
-        <v>0.00144675925925926</v>
+        <v>0</v>
       </c>
       <c r="T79" s="4">
         <v>0</v>
@@ -7103,8 +7337,11 @@
       <c r="AA79" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="80" spans="2:27">
+      <c r="AC79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29">
       <c r="B80" t="s">
         <v>27</v>
       </c>
@@ -7154,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="R80" s="4">
+        <v>0.00180555555555556</v>
+      </c>
+      <c r="S80" s="4">
         <v>9.25925925925926e-5</v>
-      </c>
-      <c r="S80" s="4">
-        <v>0.00180555555555556</v>
       </c>
       <c r="T80" s="4">
         <v>0</v>
@@ -7180,8 +7417,11 @@
       <c r="AA80" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="81" spans="2:27">
+      <c r="AC80" s="4">
+        <v>9.25925925925926e-5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29">
       <c r="B81" t="s">
         <v>28</v>
       </c>
@@ -7231,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="4">
+        <v>0.000590277777777778</v>
+      </c>
+      <c r="S81" s="4">
         <v>0.00128472222222222</v>
-      </c>
-      <c r="S81" s="4">
-        <v>0.000590277777777778</v>
       </c>
       <c r="T81" s="4">
         <v>0</v>
@@ -7257,8 +7497,11 @@
       <c r="AA81" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="82" spans="2:27">
+      <c r="AC81" s="4">
+        <v>0.00128472222222222</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29">
       <c r="B82" t="s">
         <v>29</v>
       </c>
@@ -7308,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="R82" s="4">
-        <v>0</v>
+        <v>0.00190972222222222</v>
       </c>
       <c r="S82" s="4">
-        <v>0.00190972222222222</v>
+        <v>0</v>
       </c>
       <c r="T82" s="4">
         <v>0</v>
@@ -7334,8 +7577,11 @@
       <c r="AA82" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="83" spans="2:27">
+      <c r="AC82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29">
       <c r="B83" t="s">
         <v>30</v>
       </c>
@@ -7385,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="4">
-        <v>0</v>
+        <v>0.00190972222222222</v>
       </c>
       <c r="S83" s="4">
-        <v>0.00190972222222222</v>
+        <v>0</v>
       </c>
       <c r="T83" s="4">
         <v>0</v>
@@ -7411,8 +7657,11 @@
       <c r="AA83" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="84" spans="2:27">
+      <c r="AC83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29">
       <c r="B84" t="s">
         <v>31</v>
       </c>
@@ -7456,16 +7705,16 @@
         <v>0</v>
       </c>
       <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4">
         <v>0.000590277777777778</v>
       </c>
-      <c r="Q84" s="4">
-        <v>0</v>
-      </c>
       <c r="R84" s="4">
-        <v>0</v>
+        <v>0.00130787037037037</v>
       </c>
       <c r="S84" s="4">
-        <v>0.00130787037037037</v>
+        <v>0</v>
       </c>
       <c r="T84" s="4">
         <v>0</v>
@@ -7488,8 +7737,11 @@
       <c r="AA84" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="85" spans="2:27">
+      <c r="AC84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29">
       <c r="B85" t="s">
         <v>32</v>
       </c>
@@ -7533,16 +7785,16 @@
         <v>0</v>
       </c>
       <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
         <v>0.000520833333333333</v>
       </c>
-      <c r="Q85" s="4">
-        <v>0</v>
-      </c>
       <c r="R85" s="4">
-        <v>0</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="S85" s="4">
-        <v>0.00138888888888889</v>
+        <v>0</v>
       </c>
       <c r="T85" s="4">
         <v>0</v>
@@ -7565,8 +7817,11 @@
       <c r="AA85" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="86" spans="2:27">
+      <c r="AC85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29">
       <c r="B86" t="s">
         <v>33</v>
       </c>
@@ -7616,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="R86" s="4">
+        <v>0.00106481481481481</v>
+      </c>
+      <c r="S86" s="4">
         <v>0.000856481481481482</v>
-      </c>
-      <c r="S86" s="4">
-        <v>0.00106481481481481</v>
       </c>
       <c r="T86" s="4">
         <v>0</v>
@@ -7642,8 +7897,11 @@
       <c r="AA86" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="87" spans="2:27">
+      <c r="AC86" s="4">
+        <v>0.000856481481481482</v>
+      </c>
+    </row>
+    <row r="87" spans="2:29">
       <c r="B87" t="s">
         <v>34</v>
       </c>
@@ -7687,16 +7945,16 @@
         <v>0</v>
       </c>
       <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
         <v>5.78703703703704e-5</v>
       </c>
-      <c r="Q87" s="4">
-        <v>0</v>
-      </c>
       <c r="R87" s="4">
-        <v>0</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="S87" s="4">
-        <v>0.00185185185185185</v>
+        <v>0</v>
       </c>
       <c r="T87" s="4">
         <v>0</v>
@@ -7719,8 +7977,11 @@
       <c r="AA87" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="88" spans="2:27">
+      <c r="AC87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:29">
       <c r="B88" t="s">
         <v>35</v>
       </c>
@@ -7770,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="R88" s="4">
+        <v>0.000590277777777778</v>
+      </c>
+      <c r="S88" s="4">
         <v>0.0012962962962963</v>
-      </c>
-      <c r="S88" s="4">
-        <v>0.000590277777777778</v>
       </c>
       <c r="T88" s="4">
         <v>0</v>
@@ -7796,8 +8057,11 @@
       <c r="AA88" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="89" spans="2:27">
+      <c r="AC88" s="4">
+        <v>0.0012962962962963</v>
+      </c>
+    </row>
+    <row r="89" spans="2:29">
       <c r="B89" t="s">
         <v>36</v>
       </c>
@@ -7847,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="R89" s="4">
-        <v>0</v>
+        <v>0.00188657407407407</v>
       </c>
       <c r="S89" s="4">
-        <v>0.00188657407407407</v>
+        <v>0</v>
       </c>
       <c r="T89" s="4">
         <v>0</v>
@@ -7873,8 +8137,11 @@
       <c r="AA89" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="90" spans="2:27">
+      <c r="AC89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29">
       <c r="B90" t="s">
         <v>37</v>
       </c>
@@ -7918,16 +8185,16 @@
         <v>0</v>
       </c>
       <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4">
         <v>0.00107638888888889</v>
       </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
       <c r="R90" s="4">
-        <v>0</v>
+        <v>0.000821759259259259</v>
       </c>
       <c r="S90" s="4">
-        <v>0.000821759259259259</v>
+        <v>0</v>
       </c>
       <c r="T90" s="4">
         <v>0</v>
@@ -7950,8 +8217,11 @@
       <c r="AA90" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="91" spans="2:27">
+      <c r="AC90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29">
       <c r="B91" t="s">
         <v>38</v>
       </c>
@@ -8001,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="4">
+        <v>0.000706018518518518</v>
+      </c>
+      <c r="S91" s="4">
         <v>0.0012037037037037</v>
-      </c>
-      <c r="S91" s="4">
-        <v>0.000706018518518518</v>
       </c>
       <c r="T91" s="4">
         <v>0</v>
@@ -8027,8 +8297,11 @@
       <c r="AA91" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="92" spans="2:27">
+      <c r="AC91" s="4">
+        <v>0.0012037037037037</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29">
       <c r="B92" t="s">
         <v>39</v>
       </c>
@@ -8072,16 +8345,16 @@
         <v>0</v>
       </c>
       <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4">
         <v>0.000439814814814815</v>
       </c>
-      <c r="Q92" s="4">
-        <v>0</v>
-      </c>
       <c r="R92" s="4">
+        <v>0.00111111111111111</v>
+      </c>
+      <c r="S92" s="4">
         <v>0.000347222222222222</v>
-      </c>
-      <c r="S92" s="4">
-        <v>0.00111111111111111</v>
       </c>
       <c r="T92" s="4">
         <v>0</v>
@@ -8104,8 +8377,11 @@
       <c r="AA92" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="93" spans="2:27">
+      <c r="AC92" s="4">
+        <v>0.000347222222222222</v>
+      </c>
+    </row>
+    <row r="93" spans="2:29">
       <c r="B93" t="s">
         <v>27</v>
       </c>
@@ -8155,10 +8431,10 @@
         <v>0</v>
       </c>
       <c r="R93" s="4">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="S93" s="4">
         <v>0.00240740740740741</v>
-      </c>
-      <c r="S93" s="4">
-        <v>0.000694444444444444</v>
       </c>
       <c r="T93" s="4">
         <v>0</v>
@@ -8181,8 +8457,11 @@
       <c r="AA93" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="94" spans="2:27">
+      <c r="AC93" s="4">
+        <v>0.00240740740740741</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -8232,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="R94" s="4">
+        <v>0.00128472222222222</v>
+      </c>
+      <c r="S94" s="4">
         <v>0.00175925925925926</v>
-      </c>
-      <c r="S94" s="4">
-        <v>0.00128472222222222</v>
       </c>
       <c r="T94" s="4">
         <v>0</v>
@@ -8258,8 +8537,11 @@
       <c r="AA94" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="95" spans="2:27">
+      <c r="AC94" s="4">
+        <v>0.00175925925925926</v>
+      </c>
+    </row>
+    <row r="95" spans="2:29">
       <c r="B95" t="s">
         <v>29</v>
       </c>
@@ -8309,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="R95" s="4">
-        <v>0</v>
+        <v>0.00309027777777778</v>
       </c>
       <c r="S95" s="4">
-        <v>0.00309027777777778</v>
+        <v>0</v>
       </c>
       <c r="T95" s="4">
         <v>0</v>
@@ -8335,8 +8617,11 @@
       <c r="AA95" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="96" spans="2:27">
+      <c r="AC95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:29">
       <c r="B96" t="s">
         <v>30</v>
       </c>
@@ -8386,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="R96" s="4">
+        <v>0.00277777777777778</v>
+      </c>
+      <c r="S96" s="4">
         <v>0.000335648148148148</v>
-      </c>
-      <c r="S96" s="4">
-        <v>0.00277777777777778</v>
       </c>
       <c r="T96" s="4">
         <v>0</v>
@@ -8412,8 +8697,11 @@
       <c r="AA96" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="97" spans="2:27">
+      <c r="AC96" s="4">
+        <v>0.000335648148148148</v>
+      </c>
+    </row>
+    <row r="97" spans="2:29">
       <c r="B97" t="s">
         <v>31</v>
       </c>
@@ -8463,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="R97" s="4">
+        <v>0.00234953703703704</v>
+      </c>
+      <c r="S97" s="4">
         <v>0.000740740740740741</v>
-      </c>
-      <c r="S97" s="4">
-        <v>0.00234953703703704</v>
       </c>
       <c r="T97" s="4">
         <v>0</v>
@@ -8489,8 +8777,11 @@
       <c r="AA97" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="98" spans="2:27">
+      <c r="AC97" s="4">
+        <v>0.000740740740740741</v>
+      </c>
+    </row>
+    <row r="98" spans="2:29">
       <c r="B98" t="s">
         <v>32</v>
       </c>
@@ -8540,10 +8831,10 @@
         <v>0</v>
       </c>
       <c r="R98" s="4">
+        <v>0.00185185185185185</v>
+      </c>
+      <c r="S98" s="4">
         <v>0.00123842592592593</v>
-      </c>
-      <c r="S98" s="4">
-        <v>0.00185185185185185</v>
       </c>
       <c r="T98" s="4">
         <v>0</v>
@@ -8566,8 +8857,11 @@
       <c r="AA98" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="99" spans="2:27">
+      <c r="AC98" s="4">
+        <v>0.00123842592592593</v>
+      </c>
+    </row>
+    <row r="99" spans="2:29">
       <c r="B99" t="s">
         <v>33</v>
       </c>
@@ -8617,10 +8911,10 @@
         <v>0</v>
       </c>
       <c r="R99" s="4">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="S99" s="4">
         <v>0.00239583333333333</v>
-      </c>
-      <c r="S99" s="4">
-        <v>0.000694444444444444</v>
       </c>
       <c r="T99" s="4">
         <v>0</v>
@@ -8643,8 +8937,11 @@
       <c r="AA99" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="100" spans="2:27">
+      <c r="AC99" s="4">
+        <v>0.00239583333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="2:29">
       <c r="B100" t="s">
         <v>34</v>
       </c>
@@ -8694,10 +8991,10 @@
         <v>0</v>
       </c>
       <c r="R100" s="4">
-        <v>0</v>
+        <v>0.00310185185185185</v>
       </c>
       <c r="S100" s="4">
-        <v>0.00310185185185185</v>
+        <v>0</v>
       </c>
       <c r="T100" s="4">
         <v>0</v>
@@ -8720,8 +9017,11 @@
       <c r="AA100" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="101" spans="2:27">
+      <c r="AC100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:29">
       <c r="B101" t="s">
         <v>35</v>
       </c>
@@ -8771,10 +9071,10 @@
         <v>0</v>
       </c>
       <c r="R101" s="4">
+        <v>0</v>
+      </c>
+      <c r="S101" s="4">
         <v>0.00309027777777778</v>
-      </c>
-      <c r="S101" s="4">
-        <v>0</v>
       </c>
       <c r="T101" s="4">
         <v>0</v>
@@ -8797,8 +9097,11 @@
       <c r="AA101" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="102" spans="2:27">
+      <c r="AC101" s="4">
+        <v>0.00309027777777778</v>
+      </c>
+    </row>
+    <row r="102" spans="2:29">
       <c r="B102" t="s">
         <v>36</v>
       </c>
@@ -8842,16 +9145,16 @@
         <v>0</v>
       </c>
       <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="4">
         <v>3.47222222222222e-5</v>
       </c>
-      <c r="Q102" s="4">
-        <v>0</v>
-      </c>
       <c r="R102" s="4">
-        <v>0</v>
+        <v>0.0030787037037037</v>
       </c>
       <c r="S102" s="4">
-        <v>0.0030787037037037</v>
+        <v>0</v>
       </c>
       <c r="T102" s="4">
         <v>0</v>
@@ -8874,8 +9177,11 @@
       <c r="AA102" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="103" spans="2:27">
+      <c r="AC102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:29">
       <c r="B103" t="s">
         <v>37</v>
       </c>
@@ -8925,10 +9231,10 @@
         <v>0</v>
       </c>
       <c r="R103" s="4">
-        <v>0</v>
+        <v>0.00306712962962963</v>
       </c>
       <c r="S103" s="4">
-        <v>0.00306712962962963</v>
+        <v>0</v>
       </c>
       <c r="T103" s="4">
         <v>0</v>
@@ -8951,8 +9257,11 @@
       <c r="AA103" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="104" spans="2:27">
+      <c r="AC103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29">
       <c r="B104" t="s">
         <v>38</v>
       </c>
@@ -9002,10 +9311,10 @@
         <v>0</v>
       </c>
       <c r="R104" s="4">
+        <v>0</v>
+      </c>
+      <c r="S104" s="4">
         <v>0.00310185185185185</v>
-      </c>
-      <c r="S104" s="4">
-        <v>0</v>
       </c>
       <c r="T104" s="4">
         <v>0</v>
@@ -9028,8 +9337,11 @@
       <c r="AA104" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="105" spans="2:27">
+      <c r="AC104" s="4">
+        <v>0.00310185185185185</v>
+      </c>
+    </row>
+    <row r="105" spans="2:29">
       <c r="B105" t="s">
         <v>39</v>
       </c>
@@ -9079,10 +9391,10 @@
         <v>0</v>
       </c>
       <c r="R105" s="4">
+        <v>0.00217592592592593</v>
+      </c>
+      <c r="S105" s="4">
         <v>0.000925925925925926</v>
-      </c>
-      <c r="S105" s="4">
-        <v>0.00217592592592593</v>
       </c>
       <c r="T105" s="4">
         <v>0</v>
@@ -9105,8 +9417,11 @@
       <c r="AA105" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="106" spans="2:27">
+      <c r="AC105" s="4">
+        <v>0.000925925925925926</v>
+      </c>
+    </row>
+    <row r="106" spans="2:29">
       <c r="B106" t="s">
         <v>27</v>
       </c>
@@ -9156,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="R106" s="4">
+        <v>0.000451388888888889</v>
+      </c>
+      <c r="S106" s="4">
         <v>0.000347222222222222</v>
-      </c>
-      <c r="S106" s="4">
-        <v>0.000451388888888889</v>
       </c>
       <c r="T106" s="4">
         <v>0</v>
@@ -9182,8 +9497,11 @@
       <c r="AA106" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="107" spans="2:27">
+      <c r="AC106" s="4">
+        <v>0.000347222222222222</v>
+      </c>
+    </row>
+    <row r="107" spans="2:29">
       <c r="B107" t="s">
         <v>28</v>
       </c>
@@ -9233,10 +9551,10 @@
         <v>0</v>
       </c>
       <c r="R107" s="4">
+        <v>0.000486111111111111</v>
+      </c>
+      <c r="S107" s="4">
         <v>0.000335648148148148</v>
-      </c>
-      <c r="S107" s="4">
-        <v>0.000486111111111111</v>
       </c>
       <c r="T107" s="4">
         <v>0</v>
@@ -9259,8 +9577,11 @@
       <c r="AA107" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="108" spans="2:27">
+      <c r="AC107" s="4">
+        <v>0.000335648148148148</v>
+      </c>
+    </row>
+    <row r="108" spans="2:29">
       <c r="B108" t="s">
         <v>29</v>
       </c>
@@ -9310,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="R108" s="4">
-        <v>0</v>
+        <v>0.000763888888888889</v>
       </c>
       <c r="S108" s="4">
-        <v>0.000763888888888889</v>
+        <v>0</v>
       </c>
       <c r="T108" s="4">
         <v>0</v>
@@ -9336,8 +9657,11 @@
       <c r="AA108" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="109" spans="2:27">
+      <c r="AC108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:29">
       <c r="B109" t="s">
         <v>30</v>
       </c>
@@ -9387,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="R109" s="4">
-        <v>0</v>
+        <v>0.000763888888888889</v>
       </c>
       <c r="S109" s="4">
-        <v>0.000763888888888889</v>
+        <v>0</v>
       </c>
       <c r="T109" s="4">
         <v>0</v>
@@ -9413,8 +9737,11 @@
       <c r="AA109" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="110" spans="2:27">
+      <c r="AC109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:29">
       <c r="B110" t="s">
         <v>31</v>
       </c>
@@ -9464,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="R110" s="4">
-        <v>0</v>
+        <v>0.000775462962962963</v>
       </c>
       <c r="S110" s="4">
-        <v>0.000775462962962963</v>
+        <v>0</v>
       </c>
       <c r="T110" s="4">
         <v>0</v>
@@ -9490,8 +9817,11 @@
       <c r="AA110" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="111" spans="2:27">
+      <c r="AC110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:29">
       <c r="B111" t="s">
         <v>32</v>
       </c>
@@ -9541,10 +9871,10 @@
         <v>0</v>
       </c>
       <c r="R111" s="4">
-        <v>0</v>
+        <v>0.000775462962962963</v>
       </c>
       <c r="S111" s="4">
-        <v>0.000775462962962963</v>
+        <v>0</v>
       </c>
       <c r="T111" s="4">
         <v>0</v>
@@ -9567,8 +9897,11 @@
       <c r="AA111" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="112" spans="2:27">
+      <c r="AC111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:29">
       <c r="B112" t="s">
         <v>33</v>
       </c>
@@ -9618,10 +9951,10 @@
         <v>0</v>
       </c>
       <c r="R112" s="4">
+        <v>0.00037037037037037</v>
+      </c>
+      <c r="S112" s="4">
         <v>0.000381944444444444</v>
-      </c>
-      <c r="S112" s="4">
-        <v>0.00037037037037037</v>
       </c>
       <c r="T112" s="4">
         <v>0</v>
@@ -9644,8 +9977,11 @@
       <c r="AA112" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="113" spans="2:27">
+      <c r="AC112" s="4">
+        <v>0.000381944444444444</v>
+      </c>
+    </row>
+    <row r="113" spans="2:29">
       <c r="B113" t="s">
         <v>34</v>
       </c>
@@ -9695,10 +10031,10 @@
         <v>0</v>
       </c>
       <c r="R113" s="4">
-        <v>0</v>
+        <v>0.000775462962962963</v>
       </c>
       <c r="S113" s="4">
-        <v>0.000775462962962963</v>
+        <v>0</v>
       </c>
       <c r="T113" s="4">
         <v>0</v>
@@ -9721,8 +10057,11 @@
       <c r="AA113" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="114" spans="2:27">
+      <c r="AC113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:29">
       <c r="B114" t="s">
         <v>35</v>
       </c>
@@ -9772,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="R114" s="4">
+        <v>0</v>
+      </c>
+      <c r="S114" s="4">
         <v>0.000775462962962963</v>
-      </c>
-      <c r="S114" s="4">
-        <v>0</v>
       </c>
       <c r="T114" s="4">
         <v>0</v>
@@ -9798,8 +10137,11 @@
       <c r="AA114" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="115" spans="2:27">
+      <c r="AC114" s="4">
+        <v>0.000775462962962963</v>
+      </c>
+    </row>
+    <row r="115" spans="2:29">
       <c r="B115" t="s">
         <v>36</v>
       </c>
@@ -9849,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="R115" s="4">
-        <v>0</v>
+        <v>0.000763888888888889</v>
       </c>
       <c r="S115" s="4">
-        <v>0.000763888888888889</v>
+        <v>0</v>
       </c>
       <c r="T115" s="4">
         <v>0</v>
@@ -9875,8 +10217,11 @@
       <c r="AA115" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="116" spans="2:27">
+      <c r="AC115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:29">
       <c r="B116" t="s">
         <v>37</v>
       </c>
@@ -9920,16 +10265,16 @@
         <v>0</v>
       </c>
       <c r="P116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="4">
         <v>3.47222222222222e-5</v>
       </c>
-      <c r="Q116" s="4">
-        <v>0</v>
-      </c>
       <c r="R116" s="4">
-        <v>0</v>
+        <v>0.000763888888888889</v>
       </c>
       <c r="S116" s="4">
-        <v>0.000763888888888889</v>
+        <v>0</v>
       </c>
       <c r="T116" s="4">
         <v>0</v>
@@ -9952,8 +10297,11 @@
       <c r="AA116" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="117" spans="2:27">
+      <c r="AC116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:29">
       <c r="B117" t="s">
         <v>38</v>
       </c>
@@ -10003,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="R117" s="4">
+        <v>0.00025462962962963</v>
+      </c>
+      <c r="S117" s="4">
         <v>0.000497685185185185</v>
-      </c>
-      <c r="S117" s="4">
-        <v>0.00025462962962963</v>
       </c>
       <c r="T117" s="4">
         <v>0</v>
@@ -10029,8 +10377,11 @@
       <c r="AA117" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="118" spans="2:27">
+      <c r="AC117" s="4">
+        <v>0.000497685185185185</v>
+      </c>
+    </row>
+    <row r="118" spans="2:29">
       <c r="B118" t="s">
         <v>39</v>
       </c>
@@ -10080,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="R118" s="4">
-        <v>0</v>
+        <v>0.000763888888888889</v>
       </c>
       <c r="S118" s="4">
-        <v>0.000763888888888889</v>
+        <v>0</v>
       </c>
       <c r="T118" s="4">
         <v>0</v>
@@ -10106,8 +10457,11 @@
       <c r="AA118" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="119" spans="2:27">
+      <c r="AC118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:29">
       <c r="B119" t="s">
         <v>27</v>
       </c>
@@ -10157,10 +10511,10 @@
         <v>0</v>
       </c>
       <c r="R119" s="4">
+        <v>0.000335648148148148</v>
+      </c>
+      <c r="S119" s="4">
         <v>0.00099537037037037</v>
-      </c>
-      <c r="S119" s="4">
-        <v>0.000335648148148148</v>
       </c>
       <c r="T119" s="4">
         <v>0.00114583333333333</v>
@@ -10183,8 +10537,11 @@
       <c r="AA119" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="120" spans="2:27">
+      <c r="AC119" s="4">
+        <v>0.00099537037037037</v>
+      </c>
+    </row>
+    <row r="120" spans="2:29">
       <c r="B120" t="s">
         <v>28</v>
       </c>
@@ -10234,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="R120" s="4">
+        <v>9.25925925925926e-5</v>
+      </c>
+      <c r="S120" s="4">
         <v>0.00130787037037037</v>
-      </c>
-      <c r="S120" s="4">
-        <v>9.25925925925926e-5</v>
       </c>
       <c r="T120" s="4">
         <v>0.00106481481481481</v>
@@ -10260,8 +10617,11 @@
       <c r="AA120" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="121" spans="2:27">
+      <c r="AC120" s="4">
+        <v>0.00130787037037037</v>
+      </c>
+    </row>
+    <row r="121" spans="2:29">
       <c r="B121" t="s">
         <v>29</v>
       </c>
@@ -10311,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="R121" s="4">
+        <v>0.00180555555555556</v>
+      </c>
+      <c r="S121" s="4">
         <v>0.000555555555555556</v>
-      </c>
-      <c r="S121" s="4">
-        <v>0.00180555555555556</v>
       </c>
       <c r="T121" s="4">
         <v>0.000115740740740741</v>
@@ -10337,8 +10697,11 @@
       <c r="AA121" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="122" spans="2:27">
+      <c r="AC121" s="4">
+        <v>0.000555555555555556</v>
+      </c>
+    </row>
+    <row r="122" spans="2:29">
       <c r="B122" t="s">
         <v>30</v>
       </c>
@@ -10388,10 +10751,10 @@
         <v>0</v>
       </c>
       <c r="R122" s="4">
+        <v>0.000243055555555556</v>
+      </c>
+      <c r="S122" s="4">
         <v>0.000972222222222222</v>
-      </c>
-      <c r="S122" s="4">
-        <v>0.000243055555555556</v>
       </c>
       <c r="T122" s="4">
         <v>0.00126157407407407</v>
@@ -10414,8 +10777,11 @@
       <c r="AA122" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="123" spans="2:27">
+      <c r="AC122" s="4">
+        <v>0.000972222222222222</v>
+      </c>
+    </row>
+    <row r="123" spans="2:29">
       <c r="B123" t="s">
         <v>31</v>
       </c>
@@ -10465,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="R123" s="4">
+        <v>0.000613425925925926</v>
+      </c>
+      <c r="S123" s="4">
         <v>0.00173611111111111</v>
-      </c>
-      <c r="S123" s="4">
-        <v>0.000613425925925926</v>
       </c>
       <c r="T123" s="4">
         <v>0</v>
@@ -10491,8 +10857,11 @@
       <c r="AA123" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="124" spans="2:27">
+      <c r="AC123" s="4">
+        <v>0.00173611111111111</v>
+      </c>
+    </row>
+    <row r="124" spans="2:29">
       <c r="B124" t="s">
         <v>32</v>
       </c>
@@ -10542,10 +10911,10 @@
         <v>0</v>
       </c>
       <c r="R124" s="4">
+        <v>0.000439814814814815</v>
+      </c>
+      <c r="S124" s="4">
         <v>0.000706018518518518</v>
-      </c>
-      <c r="S124" s="4">
-        <v>0.000439814814814815</v>
       </c>
       <c r="T124" s="4">
         <v>0.00131944444444444</v>
@@ -10568,8 +10937,11 @@
       <c r="AA124" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="125" spans="2:27">
+      <c r="AC124" s="4">
+        <v>0.000706018518518518</v>
+      </c>
+    </row>
+    <row r="125" spans="2:29">
       <c r="B125" t="s">
         <v>33</v>
       </c>
@@ -10619,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="R125" s="4">
+        <v>0.000138888888888889</v>
+      </c>
+      <c r="S125" s="4">
         <v>0.000509259259259259</v>
-      </c>
-      <c r="S125" s="4">
-        <v>0.000138888888888889</v>
       </c>
       <c r="T125" s="4">
         <v>0.0018287037037037</v>
@@ -10645,8 +11017,11 @@
       <c r="AA125" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="126" spans="2:27">
+      <c r="AC125" s="4">
+        <v>0.000509259259259259</v>
+      </c>
+    </row>
+    <row r="126" spans="2:29">
       <c r="B126" t="s">
         <v>34</v>
       </c>
@@ -10696,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="R126" s="4">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="S126" s="4">
         <v>0.00178240740740741</v>
-      </c>
-      <c r="S126" s="4">
-        <v>0.000694444444444444</v>
       </c>
       <c r="T126" s="4">
         <v>0</v>
@@ -10722,8 +11097,11 @@
       <c r="AA126" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="127" spans="2:27">
+      <c r="AC126" s="4">
+        <v>0.00178240740740741</v>
+      </c>
+    </row>
+    <row r="127" spans="2:29">
       <c r="B127" t="s">
         <v>35</v>
       </c>
@@ -10773,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="R127" s="4">
+        <v>0</v>
+      </c>
+      <c r="S127" s="4">
         <v>0.000590277777777778</v>
-      </c>
-      <c r="S127" s="4">
-        <v>0</v>
       </c>
       <c r="T127" s="4">
         <v>0.00188657407407407</v>
@@ -10799,8 +11177,11 @@
       <c r="AA127" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="128" spans="2:27">
+      <c r="AC127" s="4">
+        <v>0.000590277777777778</v>
+      </c>
+    </row>
+    <row r="128" spans="2:29">
       <c r="B128" t="s">
         <v>36</v>
       </c>
@@ -10850,10 +11231,10 @@
         <v>0</v>
       </c>
       <c r="R128" s="4">
+        <v>0.000509259259259259</v>
+      </c>
+      <c r="S128" s="4">
         <v>0.00196759259259259</v>
-      </c>
-      <c r="S128" s="4">
-        <v>0.000509259259259259</v>
       </c>
       <c r="T128" s="4">
         <v>0</v>
@@ -10876,8 +11257,11 @@
       <c r="AA128" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="129" spans="2:27">
+      <c r="AC128" s="4">
+        <v>0.00196759259259259</v>
+      </c>
+    </row>
+    <row r="129" spans="2:29">
       <c r="B129" t="s">
         <v>37</v>
       </c>
@@ -10927,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="R129" s="4">
+        <v>0.000590277777777778</v>
+      </c>
+      <c r="S129" s="4">
         <v>0.0015625</v>
-      </c>
-      <c r="S129" s="4">
-        <v>0.000590277777777778</v>
       </c>
       <c r="T129" s="4">
         <v>0.000324074074074074</v>
@@ -10953,8 +11337,11 @@
       <c r="AA129" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="130" spans="2:27">
+      <c r="AC129" s="4">
+        <v>0.0015625</v>
+      </c>
+    </row>
+    <row r="130" spans="2:29">
       <c r="B130" t="s">
         <v>38</v>
       </c>
@@ -11004,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="R130" s="4">
+        <v>9.25925925925926e-5</v>
+      </c>
+      <c r="S130" s="4">
         <v>0.000509259259259259</v>
-      </c>
-      <c r="S130" s="4">
-        <v>9.25925925925926e-5</v>
       </c>
       <c r="T130" s="4">
         <v>0.00188657407407407</v>
@@ -11030,8 +11417,11 @@
       <c r="AA130" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="131" spans="2:27">
+      <c r="AC130" s="4">
+        <v>0.000509259259259259</v>
+      </c>
+    </row>
+    <row r="131" spans="2:29">
       <c r="B131" t="s">
         <v>39</v>
       </c>
@@ -11081,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="R131" s="4">
+        <v>0.000648148148148148</v>
+      </c>
+      <c r="S131" s="4">
         <v>0.0018287037037037</v>
-      </c>
-      <c r="S131" s="4">
-        <v>0.000648148148148148</v>
       </c>
       <c r="T131" s="4">
         <v>0</v>
@@ -11107,8 +11497,11 @@
       <c r="AA131" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="132" spans="2:27">
+      <c r="AC131" s="4">
+        <v>0.0018287037037037</v>
+      </c>
+    </row>
+    <row r="132" spans="2:29">
       <c r="B132" t="s">
         <v>27</v>
       </c>
@@ -11158,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="R132" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S132" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T132" s="4">
         <v>0</v>
@@ -11184,8 +11577,11 @@
       <c r="AA132" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="133" spans="2:27">
+      <c r="AC132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:29">
       <c r="B133" t="s">
         <v>28</v>
       </c>
@@ -11235,10 +11631,10 @@
         <v>0</v>
       </c>
       <c r="R133" s="4">
+        <v>0.00025462962962963</v>
+      </c>
+      <c r="S133" s="4">
         <v>0.000173611111111111</v>
-      </c>
-      <c r="S133" s="4">
-        <v>0.00025462962962963</v>
       </c>
       <c r="T133" s="4">
         <v>0</v>
@@ -11261,8 +11657,11 @@
       <c r="AA133" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="134" spans="2:27">
+      <c r="AC133" s="4">
+        <v>0.000173611111111111</v>
+      </c>
+    </row>
+    <row r="134" spans="2:29">
       <c r="B134" t="s">
         <v>29</v>
       </c>
@@ -11312,10 +11711,10 @@
         <v>0</v>
       </c>
       <c r="R134" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S134" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T134" s="4">
         <v>0</v>
@@ -11338,8 +11737,11 @@
       <c r="AA134" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="135" spans="2:27">
+      <c r="AC134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:29">
       <c r="B135" t="s">
         <v>30</v>
       </c>
@@ -11389,10 +11791,10 @@
         <v>0</v>
       </c>
       <c r="R135" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S135" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T135" s="4">
         <v>0</v>
@@ -11415,8 +11817,11 @@
       <c r="AA135" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="136" spans="2:27">
+      <c r="AC135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:29">
       <c r="B136" t="s">
         <v>31</v>
       </c>
@@ -11466,10 +11871,10 @@
         <v>0</v>
       </c>
       <c r="R136" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S136" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T136" s="4">
         <v>0</v>
@@ -11492,8 +11897,11 @@
       <c r="AA136" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="137" spans="2:27">
+      <c r="AC136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:29">
       <c r="B137" t="s">
         <v>32</v>
       </c>
@@ -11543,10 +11951,10 @@
         <v>0</v>
       </c>
       <c r="R137" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S137" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T137" s="4">
         <v>0</v>
@@ -11569,8 +11977,11 @@
       <c r="AA137" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="138" spans="2:27">
+      <c r="AC137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:29">
       <c r="B138" t="s">
         <v>33</v>
       </c>
@@ -11620,10 +12031,10 @@
         <v>0</v>
       </c>
       <c r="R138" s="4">
+        <v>0.000289351851851852</v>
+      </c>
+      <c r="S138" s="4">
         <v>0.000127314814814815</v>
-      </c>
-      <c r="S138" s="4">
-        <v>0.000289351851851852</v>
       </c>
       <c r="T138" s="4">
         <v>0</v>
@@ -11646,8 +12057,11 @@
       <c r="AA138" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="139" spans="2:27">
+      <c r="AC138" s="4">
+        <v>0.000127314814814815</v>
+      </c>
+    </row>
+    <row r="139" spans="2:29">
       <c r="B139" t="s">
         <v>34</v>
       </c>
@@ -11697,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="R139" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S139" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T139" s="4">
         <v>0</v>
@@ -11723,8 +12137,11 @@
       <c r="AA139" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="140" spans="2:27">
+      <c r="AC139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:29">
       <c r="B140" t="s">
         <v>35</v>
       </c>
@@ -11774,10 +12191,10 @@
         <v>0</v>
       </c>
       <c r="R140" s="4">
+        <v>0</v>
+      </c>
+      <c r="S140" s="4">
         <v>0.000428240740740741</v>
-      </c>
-      <c r="S140" s="4">
-        <v>0</v>
       </c>
       <c r="T140" s="4">
         <v>0</v>
@@ -11800,8 +12217,11 @@
       <c r="AA140" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="141" spans="2:27">
+      <c r="AC140" s="4">
+        <v>0.000428240740740741</v>
+      </c>
+    </row>
+    <row r="141" spans="2:29">
       <c r="B141" t="s">
         <v>36</v>
       </c>
@@ -11851,10 +12271,10 @@
         <v>0</v>
       </c>
       <c r="R141" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S141" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T141" s="4">
         <v>0</v>
@@ -11877,8 +12297,11 @@
       <c r="AA141" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="142" spans="2:27">
+      <c r="AC141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:29">
       <c r="B142" t="s">
         <v>37</v>
       </c>
@@ -11928,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="R142" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S142" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T142" s="4">
         <v>0</v>
@@ -11954,8 +12377,11 @@
       <c r="AA142" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="143" spans="2:27">
+      <c r="AC142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:29">
       <c r="B143" t="s">
         <v>38</v>
       </c>
@@ -12005,10 +12431,10 @@
         <v>0</v>
       </c>
       <c r="R143" s="4">
+        <v>0</v>
+      </c>
+      <c r="S143" s="4">
         <v>0.000428240740740741</v>
-      </c>
-      <c r="S143" s="4">
-        <v>0</v>
       </c>
       <c r="T143" s="4">
         <v>0</v>
@@ -12031,8 +12457,11 @@
       <c r="AA143" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="144" spans="2:27">
+      <c r="AC143" s="4">
+        <v>0.000428240740740741</v>
+      </c>
+    </row>
+    <row r="144" spans="2:29">
       <c r="B144" t="s">
         <v>39</v>
       </c>
@@ -12082,10 +12511,10 @@
         <v>0</v>
       </c>
       <c r="R144" s="4">
-        <v>0</v>
+        <v>0.000428240740740741</v>
       </c>
       <c r="S144" s="4">
-        <v>0.000428240740740741</v>
+        <v>0</v>
       </c>
       <c r="T144" s="4">
         <v>0</v>
@@ -12108,8 +12537,11 @@
       <c r="AA144" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="145" spans="2:27">
+      <c r="AC144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:29">
       <c r="B145" t="s">
         <v>27</v>
       </c>
@@ -12159,10 +12591,10 @@
         <v>0</v>
       </c>
       <c r="R145" s="4">
+        <v>0.00122685185185185</v>
+      </c>
+      <c r="S145" s="4">
         <v>0.00224537037037037</v>
-      </c>
-      <c r="S145" s="4">
-        <v>0.00122685185185185</v>
       </c>
       <c r="T145" s="4">
         <v>0.0009375</v>
@@ -12185,8 +12617,11 @@
       <c r="AA145" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="146" spans="2:27">
+      <c r="AC145" s="4">
+        <v>0.00224537037037037</v>
+      </c>
+    </row>
+    <row r="146" spans="2:29">
       <c r="B146" t="s">
         <v>28</v>
       </c>
@@ -12236,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="R146" s="4">
+        <v>1.15740740740741e-5</v>
+      </c>
+      <c r="S146" s="4">
         <v>0.00190972222222222</v>
-      </c>
-      <c r="S146" s="4">
-        <v>1.15740740740741e-5</v>
       </c>
       <c r="T146" s="4">
         <v>0.00247685185185185</v>
@@ -12262,8 +12697,11 @@
       <c r="AA146" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="147" spans="2:27">
+      <c r="AC146" s="4">
+        <v>0.00190972222222222</v>
+      </c>
+    </row>
+    <row r="147" spans="2:29">
       <c r="B147" t="s">
         <v>29</v>
       </c>
@@ -12313,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="R147" s="4">
+        <v>0.00282407407407407</v>
+      </c>
+      <c r="S147" s="4">
         <v>0.00157407407407407</v>
-      </c>
-      <c r="S147" s="4">
-        <v>0.00282407407407407</v>
       </c>
       <c r="T147" s="4">
         <v>0</v>
@@ -12339,8 +12777,11 @@
       <c r="AA147" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="148" spans="2:27">
+      <c r="AC147" s="4">
+        <v>0.00157407407407407</v>
+      </c>
+    </row>
+    <row r="148" spans="2:29">
       <c r="B148" t="s">
         <v>30</v>
       </c>
@@ -12390,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="R148" s="4">
+        <v>0.00105324074074074</v>
+      </c>
+      <c r="S148" s="4">
         <v>0.00260416666666667</v>
-      </c>
-      <c r="S148" s="4">
-        <v>0.00105324074074074</v>
       </c>
       <c r="T148" s="4">
         <v>0.000717592592592593</v>
@@ -12416,8 +12857,11 @@
       <c r="AA148" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="149" spans="2:27">
+      <c r="AC148" s="4">
+        <v>0.00260416666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="2:29">
       <c r="B149" t="s">
         <v>31</v>
       </c>
@@ -12467,10 +12911,10 @@
         <v>0</v>
       </c>
       <c r="R149" s="4">
+        <v>0.00174768518518519</v>
+      </c>
+      <c r="S149" s="4">
         <v>0.00251157407407407</v>
-      </c>
-      <c r="S149" s="4">
-        <v>0.00174768518518519</v>
       </c>
       <c r="T149" s="4">
         <v>3.47222222222222e-5</v>
@@ -12493,8 +12937,11 @@
       <c r="AA149" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="150" spans="2:27">
+      <c r="AC149" s="4">
+        <v>0.00251157407407407</v>
+      </c>
+    </row>
+    <row r="150" spans="2:29">
       <c r="B150" t="s">
         <v>32</v>
       </c>
@@ -12544,10 +12991,10 @@
         <v>0</v>
       </c>
       <c r="R150" s="4">
+        <v>0.00134259259259259</v>
+      </c>
+      <c r="S150" s="4">
         <v>0.00226851851851852</v>
-      </c>
-      <c r="S150" s="4">
-        <v>0.00134259259259259</v>
       </c>
       <c r="T150" s="4">
         <v>0.000787037037037037</v>
@@ -12570,8 +13017,11 @@
       <c r="AA150" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="151" spans="2:27">
+      <c r="AC150" s="4">
+        <v>0.00226851851851852</v>
+      </c>
+    </row>
+    <row r="151" spans="2:29">
       <c r="B151" t="s">
         <v>33</v>
       </c>
@@ -12621,10 +13071,10 @@
         <v>0</v>
       </c>
       <c r="R151" s="4">
+        <v>0.000324074074074074</v>
+      </c>
+      <c r="S151" s="4">
         <v>0.00164351851851852</v>
-      </c>
-      <c r="S151" s="4">
-        <v>0.000324074074074074</v>
       </c>
       <c r="T151" s="4">
         <v>0.00240740740740741</v>
@@ -12647,8 +13097,11 @@
       <c r="AA151" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="152" spans="2:27">
+      <c r="AC151" s="4">
+        <v>0.00164351851851852</v>
+      </c>
+    </row>
+    <row r="152" spans="2:29">
       <c r="B152" t="s">
         <v>34</v>
       </c>
@@ -12698,10 +13151,10 @@
         <v>0</v>
       </c>
       <c r="R152" s="4">
+        <v>0.00202546296296296</v>
+      </c>
+      <c r="S152" s="4">
         <v>0.00237268518518519</v>
-      </c>
-      <c r="S152" s="4">
-        <v>0.00202546296296296</v>
       </c>
       <c r="T152" s="4">
         <v>0</v>
@@ -12724,8 +13177,11 @@
       <c r="AA152" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="153" spans="2:27">
+      <c r="AC152" s="4">
+        <v>0.00237268518518519</v>
+      </c>
+    </row>
+    <row r="153" spans="2:29">
       <c r="B153" t="s">
         <v>35</v>
       </c>
@@ -12775,10 +13231,10 @@
         <v>0</v>
       </c>
       <c r="R153" s="4">
+        <v>0</v>
+      </c>
+      <c r="S153" s="4">
         <v>0.0025</v>
-      </c>
-      <c r="S153" s="4">
-        <v>0</v>
       </c>
       <c r="T153" s="4">
         <v>0.00189814814814815</v>
@@ -12801,8 +13257,11 @@
       <c r="AA153" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="154" spans="2:27">
+      <c r="AC153" s="4">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="154" spans="2:29">
       <c r="B154" t="s">
         <v>36</v>
       </c>
@@ -12852,10 +13311,10 @@
         <v>0</v>
       </c>
       <c r="R154" s="4">
+        <v>0.00101851851851852</v>
+      </c>
+      <c r="S154" s="4">
         <v>0.0021875</v>
-      </c>
-      <c r="S154" s="4">
-        <v>0.00101851851851852</v>
       </c>
       <c r="T154" s="4">
         <v>0.00121527777777778</v>
@@ -12878,8 +13337,11 @@
       <c r="AA154" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="155" spans="2:27">
+      <c r="AC154" s="4">
+        <v>0.0021875</v>
+      </c>
+    </row>
+    <row r="155" spans="2:29">
       <c r="B155" t="s">
         <v>37</v>
       </c>
@@ -12929,10 +13391,10 @@
         <v>0</v>
       </c>
       <c r="R155" s="4">
+        <v>0.00121527777777778</v>
+      </c>
+      <c r="S155" s="4">
         <v>0.00253472222222222</v>
-      </c>
-      <c r="S155" s="4">
-        <v>0.00121527777777778</v>
       </c>
       <c r="T155" s="4">
         <v>0.000659722222222222</v>
@@ -12955,8 +13417,11 @@
       <c r="AA155" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="156" spans="2:27">
+      <c r="AC155" s="4">
+        <v>0.00253472222222222</v>
+      </c>
+    </row>
+    <row r="156" spans="2:29">
       <c r="B156" t="s">
         <v>38</v>
       </c>
@@ -13006,10 +13471,10 @@
         <v>0</v>
       </c>
       <c r="R156" s="4">
+        <v>0</v>
+      </c>
+      <c r="S156" s="4">
         <v>0.00239583333333333</v>
-      </c>
-      <c r="S156" s="4">
-        <v>0</v>
       </c>
       <c r="T156" s="4">
         <v>0.00200231481481481</v>
@@ -13032,8 +13497,11 @@
       <c r="AA156" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="157" spans="2:27">
+      <c r="AC156" s="4">
+        <v>0.00239583333333333</v>
+      </c>
+    </row>
+    <row r="157" spans="2:29">
       <c r="B157" t="s">
         <v>39</v>
       </c>
@@ -13083,10 +13551,10 @@
         <v>0</v>
       </c>
       <c r="R157" s="4">
+        <v>0.00168981481481482</v>
+      </c>
+      <c r="S157" s="4">
         <v>0.00269675925925926</v>
-      </c>
-      <c r="S157" s="4">
-        <v>0.00168981481481482</v>
       </c>
       <c r="T157" s="4">
         <v>0</v>
@@ -13109,8 +13577,11 @@
       <c r="AA157" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="158" spans="2:27">
+      <c r="AC157" s="4">
+        <v>0.00269675925925926</v>
+      </c>
+    </row>
+    <row r="158" spans="2:29">
       <c r="B158" t="s">
         <v>27</v>
       </c>
@@ -13160,10 +13631,10 @@
         <v>0</v>
       </c>
       <c r="R158" s="4">
+        <v>0.00109953703703704</v>
+      </c>
+      <c r="S158" s="4">
         <v>0.0037962962962963</v>
-      </c>
-      <c r="S158" s="4">
-        <v>0.00109953703703704</v>
       </c>
       <c r="T158" s="4">
         <v>0.00119212962962963</v>
@@ -13186,8 +13657,11 @@
       <c r="AA158" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="159" spans="2:27">
+      <c r="AC158" s="4">
+        <v>0.0037962962962963</v>
+      </c>
+    </row>
+    <row r="159" spans="2:29">
       <c r="B159" t="s">
         <v>28</v>
       </c>
@@ -13237,10 +13711,10 @@
         <v>0</v>
       </c>
       <c r="R159" s="4">
+        <v>0</v>
+      </c>
+      <c r="S159" s="4">
         <v>0.00165509259259259</v>
-      </c>
-      <c r="S159" s="4">
-        <v>0</v>
       </c>
       <c r="T159" s="4">
         <v>0.00440972222222222</v>
@@ -13263,8 +13737,11 @@
       <c r="AA159" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="160" spans="2:27">
+      <c r="AC159" s="4">
+        <v>0.00165509259259259</v>
+      </c>
+    </row>
+    <row r="160" spans="2:29">
       <c r="B160" t="s">
         <v>29</v>
       </c>
@@ -13314,10 +13791,10 @@
         <v>0</v>
       </c>
       <c r="R160" s="4">
+        <v>0.00166666666666667</v>
+      </c>
+      <c r="S160" s="4">
         <v>0.00430555555555556</v>
-      </c>
-      <c r="S160" s="4">
-        <v>0.00166666666666667</v>
       </c>
       <c r="T160" s="4">
         <v>9.25925925925926e-5</v>
@@ -13340,8 +13817,11 @@
       <c r="AA160" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="161" spans="2:27">
+      <c r="AC160" s="4">
+        <v>0.00430555555555556</v>
+      </c>
+    </row>
+    <row r="161" spans="2:29">
       <c r="B161" t="s">
         <v>30</v>
       </c>
@@ -13391,10 +13871,10 @@
         <v>0</v>
       </c>
       <c r="R161" s="4">
+        <v>0.000439814814814815</v>
+      </c>
+      <c r="S161" s="4">
         <v>0.00236111111111111</v>
-      </c>
-      <c r="S161" s="4">
-        <v>0.000439814814814815</v>
       </c>
       <c r="T161" s="4">
         <v>0.00327546296296296</v>
@@ -13417,8 +13897,11 @@
       <c r="AA161" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="162" spans="2:27">
+      <c r="AC161" s="4">
+        <v>0.00236111111111111</v>
+      </c>
+    </row>
+    <row r="162" spans="2:29">
       <c r="B162" t="s">
         <v>31</v>
       </c>
@@ -13468,10 +13951,10 @@
         <v>0</v>
       </c>
       <c r="R162" s="4">
+        <v>0.00355324074074074</v>
+      </c>
+      <c r="S162" s="4">
         <v>0.00224537037037037</v>
-      </c>
-      <c r="S162" s="4">
-        <v>0.00355324074074074</v>
       </c>
       <c r="T162" s="4">
         <v>0</v>
@@ -13494,8 +13977,11 @@
       <c r="AA162" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="163" spans="2:27">
+      <c r="AC162" s="4">
+        <v>0.00224537037037037</v>
+      </c>
+    </row>
+    <row r="163" spans="2:29">
       <c r="B163" t="s">
         <v>32</v>
       </c>
@@ -13545,10 +14031,10 @@
         <v>0</v>
       </c>
       <c r="R163" s="4">
+        <v>0.00199074074074074</v>
+      </c>
+      <c r="S163" s="4">
         <v>0.00322916666666667</v>
-      </c>
-      <c r="S163" s="4">
-        <v>0.00199074074074074</v>
       </c>
       <c r="T163" s="4">
         <v>0.000856481481481482</v>
@@ -13571,8 +14057,11 @@
       <c r="AA163" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="164" spans="2:27">
+      <c r="AC163" s="4">
+        <v>0.00322916666666667</v>
+      </c>
+    </row>
+    <row r="164" spans="2:29">
       <c r="B164" t="s">
         <v>33</v>
       </c>
@@ -13622,10 +14111,10 @@
         <v>0</v>
       </c>
       <c r="R164" s="4">
+        <v>0</v>
+      </c>
+      <c r="S164" s="4">
         <v>0.00130787037037037</v>
-      </c>
-      <c r="S164" s="4">
-        <v>0</v>
       </c>
       <c r="T164" s="4">
         <v>0.00476851851851852</v>
@@ -13648,8 +14137,11 @@
       <c r="AA164" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="165" spans="2:27">
+      <c r="AC164" s="4">
+        <v>0.00130787037037037</v>
+      </c>
+    </row>
+    <row r="165" spans="2:29">
       <c r="B165" t="s">
         <v>34</v>
       </c>
@@ -13699,10 +14191,10 @@
         <v>0</v>
       </c>
       <c r="R165" s="4">
+        <v>0.00100694444444444</v>
+      </c>
+      <c r="S165" s="4">
         <v>0.0050462962962963</v>
-      </c>
-      <c r="S165" s="4">
-        <v>0.00100694444444444</v>
       </c>
       <c r="T165" s="4">
         <v>0</v>
@@ -13725,8 +14217,11 @@
       <c r="AA165" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="166" spans="2:27">
+      <c r="AC165" s="4">
+        <v>0.0050462962962963</v>
+      </c>
+    </row>
+    <row r="166" spans="2:29">
       <c r="B166" t="s">
         <v>35</v>
       </c>
@@ -13776,10 +14271,10 @@
         <v>0</v>
       </c>
       <c r="R166" s="4">
+        <v>0.000277777777777778</v>
+      </c>
+      <c r="S166" s="4">
         <v>0.00298611111111111</v>
-      </c>
-      <c r="S166" s="4">
-        <v>0.000277777777777778</v>
       </c>
       <c r="T166" s="4">
         <v>0.00278935185185185</v>
@@ -13802,8 +14297,11 @@
       <c r="AA166" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="167" spans="2:27">
+      <c r="AC166" s="4">
+        <v>0.00298611111111111</v>
+      </c>
+    </row>
+    <row r="167" spans="2:29">
       <c r="B167" t="s">
         <v>36</v>
       </c>
@@ -13853,10 +14351,10 @@
         <v>0</v>
       </c>
       <c r="R167" s="4">
+        <v>0.000636574074074074</v>
+      </c>
+      <c r="S167" s="4">
         <v>0.00273148148148148</v>
-      </c>
-      <c r="S167" s="4">
-        <v>0.000636574074074074</v>
       </c>
       <c r="T167" s="4">
         <v>0.00273148148148148</v>
@@ -13879,8 +14377,11 @@
       <c r="AA167" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="168" spans="2:27">
+      <c r="AC167" s="4">
+        <v>0.00273148148148148</v>
+      </c>
+    </row>
+    <row r="168" spans="2:29">
       <c r="B168" t="s">
         <v>37</v>
       </c>
@@ -13930,10 +14431,10 @@
         <v>0</v>
       </c>
       <c r="R168" s="4">
+        <v>0.000752314814814815</v>
+      </c>
+      <c r="S168" s="4">
         <v>0.00446759259259259</v>
-      </c>
-      <c r="S168" s="4">
-        <v>0.000752314814814815</v>
       </c>
       <c r="T168" s="4">
         <v>0.000671296296296296</v>
@@ -13956,8 +14457,11 @@
       <c r="AA168" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="169" spans="2:27">
+      <c r="AC168" s="4">
+        <v>0.00446759259259259</v>
+      </c>
+    </row>
+    <row r="169" spans="2:29">
       <c r="B169" t="s">
         <v>38</v>
       </c>
@@ -14007,10 +14511,10 @@
         <v>0</v>
       </c>
       <c r="R169" s="4">
+        <v>0</v>
+      </c>
+      <c r="S169" s="4">
         <v>0.00101851851851852</v>
-      </c>
-      <c r="S169" s="4">
-        <v>0</v>
       </c>
       <c r="T169" s="4">
         <v>0.00503472222222222</v>
@@ -14033,8 +14537,11 @@
       <c r="AA169" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="170" spans="2:27">
+      <c r="AC169" s="4">
+        <v>0.00101851851851852</v>
+      </c>
+    </row>
+    <row r="170" spans="2:29">
       <c r="B170" t="s">
         <v>39</v>
       </c>
@@ -14084,10 +14591,10 @@
         <v>0</v>
       </c>
       <c r="R170" s="4">
+        <v>0.000520833333333333</v>
+      </c>
+      <c r="S170" s="4">
         <v>0.00547453703703704</v>
-      </c>
-      <c r="S170" s="4">
-        <v>0.000520833333333333</v>
       </c>
       <c r="T170" s="4">
         <v>3.47222222222222e-5</v>
@@ -14110,8 +14617,11 @@
       <c r="AA170" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="171" spans="2:27">
+      <c r="AC170" s="4">
+        <v>0.00547453703703704</v>
+      </c>
+    </row>
+    <row r="171" spans="2:29">
       <c r="B171" t="s">
         <v>27</v>
       </c>
@@ -14155,16 +14665,16 @@
         <v>0</v>
       </c>
       <c r="P171" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="4">
         <v>0.000960648148148148</v>
       </c>
-      <c r="Q171" s="4">
-        <v>0</v>
-      </c>
       <c r="R171" s="4">
+        <v>0.00109953703703704</v>
+      </c>
+      <c r="S171" s="4">
         <v>0.000358796296296296</v>
-      </c>
-      <c r="S171" s="4">
-        <v>0.00109953703703704</v>
       </c>
       <c r="T171" s="4">
         <v>0.000185185185185185</v>
@@ -14187,8 +14697,11 @@
       <c r="AA171" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="172" spans="2:27">
+      <c r="AC171" s="4">
+        <v>0.000358796296296296</v>
+      </c>
+    </row>
+    <row r="172" spans="2:29">
       <c r="B172" t="s">
         <v>28</v>
       </c>
@@ -14238,10 +14751,10 @@
         <v>0</v>
       </c>
       <c r="R172" s="4">
+        <v>0.000914351851851852</v>
+      </c>
+      <c r="S172" s="4">
         <v>0.00131944444444444</v>
-      </c>
-      <c r="S172" s="4">
-        <v>0.000914351851851852</v>
       </c>
       <c r="T172" s="4">
         <v>0.00037037037037037</v>
@@ -14264,8 +14777,11 @@
       <c r="AA172" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="173" spans="2:27">
+      <c r="AC172" s="4">
+        <v>0.00131944444444444</v>
+      </c>
+    </row>
+    <row r="173" spans="2:29">
       <c r="B173" t="s">
         <v>29</v>
       </c>
@@ -14315,10 +14831,10 @@
         <v>0</v>
       </c>
       <c r="R173" s="4">
+        <v>0.00162037037037037</v>
+      </c>
+      <c r="S173" s="4">
         <v>0.000590277777777778</v>
-      </c>
-      <c r="S173" s="4">
-        <v>0.00162037037037037</v>
       </c>
       <c r="T173" s="4">
         <v>0.00037037037037037</v>
@@ -14341,8 +14857,11 @@
       <c r="AA173" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="174" spans="2:27">
+      <c r="AC173" s="4">
+        <v>0.000590277777777778</v>
+      </c>
+    </row>
+    <row r="174" spans="2:29">
       <c r="B174" t="s">
         <v>30</v>
       </c>
@@ -14392,10 +14911,10 @@
         <v>0</v>
       </c>
       <c r="R174" s="4">
+        <v>0.00194444444444444</v>
+      </c>
+      <c r="S174" s="4">
         <v>0.000393518518518519</v>
-      </c>
-      <c r="S174" s="4">
-        <v>0.00194444444444444</v>
       </c>
       <c r="T174" s="4">
         <v>0.00025462962962963</v>
@@ -14418,8 +14937,11 @@
       <c r="AA174" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="175" spans="2:27">
+      <c r="AC174" s="4">
+        <v>0.000393518518518519</v>
+      </c>
+    </row>
+    <row r="175" spans="2:29">
       <c r="B175" t="s">
         <v>31</v>
       </c>
@@ -14463,16 +14985,16 @@
         <v>0</v>
       </c>
       <c r="P175" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="4">
         <v>0.000601851851851852</v>
       </c>
-      <c r="Q175" s="4">
-        <v>0</v>
-      </c>
       <c r="R175" s="4">
+        <v>0.00181712962962963</v>
+      </c>
+      <c r="S175" s="4">
         <v>0.000185185185185185</v>
-      </c>
-      <c r="S175" s="4">
-        <v>0.00181712962962963</v>
       </c>
       <c r="T175" s="4">
         <v>0</v>
@@ -14495,8 +15017,11 @@
       <c r="AA175" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="176" spans="2:27">
+      <c r="AC175" s="4">
+        <v>0.000185185185185185</v>
+      </c>
+    </row>
+    <row r="176" spans="2:29">
       <c r="B176" t="s">
         <v>32</v>
       </c>
@@ -14540,16 +15065,16 @@
         <v>0</v>
       </c>
       <c r="P176" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="4">
         <v>0.000162037037037037</v>
       </c>
-      <c r="Q176" s="4">
-        <v>0</v>
-      </c>
       <c r="R176" s="4">
+        <v>0.00189814814814815</v>
+      </c>
+      <c r="S176" s="4">
         <v>0.000393518518518519</v>
-      </c>
-      <c r="S176" s="4">
-        <v>0.00189814814814815</v>
       </c>
       <c r="T176" s="4">
         <v>0.000173611111111111</v>
@@ -14572,8 +15097,11 @@
       <c r="AA176" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="177" spans="2:27">
+      <c r="AC176" s="4">
+        <v>0.000393518518518519</v>
+      </c>
+    </row>
+    <row r="177" spans="2:29">
       <c r="B177" t="s">
         <v>33</v>
       </c>
@@ -14623,10 +15151,10 @@
         <v>0</v>
       </c>
       <c r="R177" s="4">
+        <v>0.00150462962962963</v>
+      </c>
+      <c r="S177" s="4">
         <v>0.000740740740740741</v>
-      </c>
-      <c r="S177" s="4">
-        <v>0.00150462962962963</v>
       </c>
       <c r="T177" s="4">
         <v>0.000347222222222222</v>
@@ -14649,8 +15177,11 @@
       <c r="AA177" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="178" spans="2:27">
+      <c r="AC177" s="4">
+        <v>0.000740740740740741</v>
+      </c>
+    </row>
+    <row r="178" spans="2:29">
       <c r="B178" t="s">
         <v>34</v>
       </c>
@@ -14694,16 +15225,16 @@
         <v>0</v>
       </c>
       <c r="P178" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="4">
         <v>0.000358796296296296</v>
       </c>
-      <c r="Q178" s="4">
-        <v>0</v>
-      </c>
       <c r="R178" s="4">
+        <v>0.0015625</v>
+      </c>
+      <c r="S178" s="4">
         <v>0.000694444444444444</v>
-      </c>
-      <c r="S178" s="4">
-        <v>0.0015625</v>
       </c>
       <c r="T178" s="4">
         <v>0</v>
@@ -14726,8 +15257,11 @@
       <c r="AA178" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="179" spans="2:27">
+      <c r="AC178" s="4">
+        <v>0.000694444444444444</v>
+      </c>
+    </row>
+    <row r="179" spans="2:29">
       <c r="B179" t="s">
         <v>35</v>
       </c>
@@ -14777,10 +15311,10 @@
         <v>0</v>
       </c>
       <c r="R179" s="4">
+        <v>0.00137731481481481</v>
+      </c>
+      <c r="S179" s="4">
         <v>0.000983796296296296</v>
-      </c>
-      <c r="S179" s="4">
-        <v>0.00137731481481481</v>
       </c>
       <c r="T179" s="4">
         <v>0.000243055555555556</v>
@@ -14803,8 +15337,11 @@
       <c r="AA179" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="180" spans="2:27">
+      <c r="AC179" s="4">
+        <v>0.000983796296296296</v>
+      </c>
+    </row>
+    <row r="180" spans="2:29">
       <c r="B180" t="s">
         <v>36</v>
       </c>
@@ -14854,10 +15391,10 @@
         <v>0</v>
       </c>
       <c r="R180" s="4">
+        <v>0.00189814814814815</v>
+      </c>
+      <c r="S180" s="4">
         <v>0.000474537037037037</v>
-      </c>
-      <c r="S180" s="4">
-        <v>0.00189814814814815</v>
       </c>
       <c r="T180" s="4">
         <v>0.000219907407407407</v>
@@ -14880,8 +15417,11 @@
       <c r="AA180" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="181" spans="2:27">
+      <c r="AC180" s="4">
+        <v>0.000474537037037037</v>
+      </c>
+    </row>
+    <row r="181" spans="2:29">
       <c r="B181" t="s">
         <v>37</v>
       </c>
@@ -14925,16 +15465,16 @@
         <v>0</v>
       </c>
       <c r="P181" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="4">
         <v>0.000868055555555556</v>
       </c>
-      <c r="Q181" s="4">
-        <v>0</v>
-      </c>
       <c r="R181" s="4">
+        <v>0.00130787037037037</v>
+      </c>
+      <c r="S181" s="4">
         <v>0.000381944444444444</v>
-      </c>
-      <c r="S181" s="4">
-        <v>0.00130787037037037</v>
       </c>
       <c r="T181" s="4">
         <v>5.78703703703704e-5</v>
@@ -14957,8 +15497,11 @@
       <c r="AA181" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="182" spans="2:27">
+      <c r="AC181" s="4">
+        <v>0.000381944444444444</v>
+      </c>
+    </row>
+    <row r="182" spans="2:29">
       <c r="B182" t="s">
         <v>38</v>
       </c>
@@ -15008,10 +15551,10 @@
         <v>0</v>
       </c>
       <c r="R182" s="4">
+        <v>0.00133101851851852</v>
+      </c>
+      <c r="S182" s="4">
         <v>0.000775462962962963</v>
-      </c>
-      <c r="S182" s="4">
-        <v>0.00133101851851852</v>
       </c>
       <c r="T182" s="4">
         <v>0.000497685185185185</v>
@@ -15034,8 +15577,11 @@
       <c r="AA182" s="5">
         <v>43853</v>
       </c>
-    </row>
-    <row r="183" spans="2:27">
+      <c r="AC182" s="4">
+        <v>0.000775462962962963</v>
+      </c>
+    </row>
+    <row r="183" spans="2:29">
       <c r="B183" t="s">
         <v>39</v>
       </c>
@@ -15085,10 +15631,10 @@
         <v>0</v>
       </c>
       <c r="R183" s="4">
+        <v>0.0018287037037037</v>
+      </c>
+      <c r="S183" s="4">
         <v>0.000393518518518519</v>
-      </c>
-      <c r="S183" s="4">
-        <v>0.0018287037037037</v>
       </c>
       <c r="T183" s="4">
         <v>0.00037037037037037</v>
@@ -15111,6 +15657,9 @@
       <c r="AA183" s="5">
         <v>43853</v>
       </c>
+      <c r="AC183" s="4">
+        <v>0.000393518518518519</v>
+      </c>
     </row>
     <row r="184" spans="27:27">
       <c r="AA184" s="6"/>
@@ -15118,7 +15667,7 @@
     <row r="185" spans="27:27">
       <c r="AA185" s="6"/>
     </row>
-    <row r="186" spans="3:27">
+    <row r="186" spans="3:29">
       <c r="C186" s="4"/>
       <c r="P186" s="4"/>
       <c r="Q186" s="4"/>
@@ -15126,8 +15675,9 @@
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
       <c r="AA186" s="6"/>
-    </row>
-    <row r="187" spans="3:27">
+      <c r="AC186" s="4"/>
+    </row>
+    <row r="187" spans="3:29">
       <c r="C187" s="4"/>
       <c r="P187" s="4"/>
       <c r="Q187" s="4"/>
@@ -15135,8 +15685,9 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
       <c r="AA187" s="6"/>
-    </row>
-    <row r="188" spans="3:27">
+      <c r="AC187" s="4"/>
+    </row>
+    <row r="188" spans="3:29">
       <c r="C188" s="4"/>
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
@@ -15144,8 +15695,9 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
       <c r="AA188" s="6"/>
-    </row>
-    <row r="189" spans="3:27">
+      <c r="AC188" s="4"/>
+    </row>
+    <row r="189" spans="3:29">
       <c r="C189" s="4"/>
       <c r="P189" s="4"/>
       <c r="Q189" s="4"/>
@@ -15153,8 +15705,9 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
       <c r="AA189" s="6"/>
-    </row>
-    <row r="190" spans="3:27">
+      <c r="AC189" s="4"/>
+    </row>
+    <row r="190" spans="3:29">
       <c r="C190" s="4"/>
       <c r="P190" s="4"/>
       <c r="Q190" s="4"/>
@@ -15162,8 +15715,9 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
       <c r="AA190" s="6"/>
-    </row>
-    <row r="191" spans="3:27">
+      <c r="AC190" s="4"/>
+    </row>
+    <row r="191" spans="3:29">
       <c r="C191" s="4"/>
       <c r="P191" s="4"/>
       <c r="Q191" s="4"/>
@@ -15171,8 +15725,9 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="AA191" s="6"/>
-    </row>
-    <row r="192" spans="3:27">
+      <c r="AC191" s="4"/>
+    </row>
+    <row r="192" spans="3:29">
       <c r="C192" s="4"/>
       <c r="P192" s="4"/>
       <c r="Q192" s="4"/>
@@ -15180,8 +15735,9 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
       <c r="AA192" s="6"/>
-    </row>
-    <row r="193" spans="3:27">
+      <c r="AC192" s="4"/>
+    </row>
+    <row r="193" spans="3:29">
       <c r="C193" s="4"/>
       <c r="P193" s="4"/>
       <c r="Q193" s="4"/>
@@ -15189,8 +15745,9 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
       <c r="AA193" s="6"/>
-    </row>
-    <row r="194" spans="3:27">
+      <c r="AC193" s="4"/>
+    </row>
+    <row r="194" spans="3:29">
       <c r="C194" s="4"/>
       <c r="P194" s="4"/>
       <c r="Q194" s="4"/>
@@ -15198,8 +15755,9 @@
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
       <c r="AA194" s="6"/>
-    </row>
-    <row r="195" spans="3:27">
+      <c r="AC194" s="4"/>
+    </row>
+    <row r="195" spans="3:29">
       <c r="C195" s="4"/>
       <c r="P195" s="4"/>
       <c r="Q195" s="4"/>
@@ -15207,8 +15765,9 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
       <c r="AA195" s="6"/>
-    </row>
-    <row r="196" spans="3:27">
+      <c r="AC195" s="4"/>
+    </row>
+    <row r="196" spans="3:29">
       <c r="C196" s="4"/>
       <c r="P196" s="4"/>
       <c r="Q196" s="4"/>
@@ -15216,8 +15775,9 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
       <c r="AA196" s="6"/>
-    </row>
-    <row r="197" spans="3:27">
+      <c r="AC196" s="4"/>
+    </row>
+    <row r="197" spans="3:29">
       <c r="C197" s="4"/>
       <c r="P197" s="4"/>
       <c r="Q197" s="4"/>
@@ -15225,8 +15785,9 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
       <c r="AA197" s="6"/>
-    </row>
-    <row r="198" spans="3:27">
+      <c r="AC197" s="4"/>
+    </row>
+    <row r="198" spans="3:29">
       <c r="C198" s="4"/>
       <c r="P198" s="4"/>
       <c r="Q198" s="4"/>
@@ -15234,8 +15795,9 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
       <c r="AA198" s="6"/>
-    </row>
-    <row r="199" spans="3:27">
+      <c r="AC198" s="4"/>
+    </row>
+    <row r="199" spans="3:29">
       <c r="C199" s="4"/>
       <c r="P199" s="4"/>
       <c r="Q199" s="4"/>
@@ -15243,6 +15805,7 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
       <c r="AA199" s="6"/>
+      <c r="AC199" s="4"/>
     </row>
     <row r="200" spans="27:27">
       <c r="AA200" s="6"/>
